--- a/CONTROLO-PROJETO.xlsx
+++ b/CONTROLO-PROJETO.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Margarida Sousa\Desktop\APDC_V1\agni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B0F5BF-6212-4CD0-8C0C-031CD6262447}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C19D1A1-BF2C-45BB-AF9E-BFBACEB7B355}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1654,16 +1654,520 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1673,15 +2177,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1693,102 +2188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1809,405 +2208,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="197">
@@ -3012,74 +3012,74 @@
   </sheetPr>
   <dimension ref="A1:AP60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
-    <col min="3" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="5.375" customWidth="1"/>
-    <col min="8" max="17" width="4.875" customWidth="1"/>
-    <col min="18" max="18" width="5.875" customWidth="1"/>
-    <col min="19" max="26" width="4.875" customWidth="1"/>
-    <col min="27" max="27" width="5.375" customWidth="1"/>
-    <col min="28" max="36" width="4.875" customWidth="1"/>
-    <col min="37" max="37" width="5.125" customWidth="1"/>
-    <col min="38" max="38" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="42.59765625" customWidth="1"/>
+    <col min="3" max="6" width="4.8984375" customWidth="1"/>
+    <col min="7" max="7" width="5.3984375" customWidth="1"/>
+    <col min="8" max="17" width="4.8984375" customWidth="1"/>
+    <col min="18" max="18" width="5.8984375" customWidth="1"/>
+    <col min="19" max="26" width="4.8984375" customWidth="1"/>
+    <col min="27" max="27" width="5.3984375" customWidth="1"/>
+    <col min="28" max="36" width="4.8984375" customWidth="1"/>
+    <col min="37" max="37" width="5.09765625" customWidth="1"/>
+    <col min="38" max="38" width="4.8984375" customWidth="1"/>
     <col min="39" max="40" width="5.5" customWidth="1"/>
     <col min="41" max="41" width="9" customWidth="1"/>
-    <col min="43" max="50" width="5.375" customWidth="1"/>
+    <col min="43" max="50" width="5.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:42" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="99"/>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
-      <c r="AK1" s="99"/>
-      <c r="AL1" s="99"/>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="99"/>
-      <c r="AP1" s="100"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
+      <c r="AH1" s="127"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="127"/>
+      <c r="AK1" s="127"/>
+      <c r="AL1" s="127"/>
+      <c r="AM1" s="127"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="127"/>
+      <c r="AP1" s="128"/>
     </row>
-    <row r="2" spans="1:42" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -3123,201 +3123,201 @@
       <c r="AO2" s="42"/>
       <c r="AP2" s="43"/>
     </row>
-    <row r="3" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="98" t="s">
+    <row r="3" spans="1:42" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="246" t="s">
+      <c r="B3" s="127"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="247"/>
-      <c r="K3" s="248"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="147"/>
       <c r="L3" s="13"/>
-      <c r="M3" s="198" t="s">
+      <c r="M3" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
-      <c r="Q3" s="200"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="164"/>
       <c r="R3" s="69"/>
-      <c r="S3" s="220">
+      <c r="S3" s="120">
         <f>SUM(C43:AN43)</f>
         <v>1250</v>
       </c>
-      <c r="T3" s="221"/>
-      <c r="U3" s="221"/>
-      <c r="V3" s="221"/>
-      <c r="W3" s="209" t="s">
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
+      <c r="V3" s="121"/>
+      <c r="W3" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="X3" s="210"/>
+      <c r="X3" s="174"/>
       <c r="Y3" s="13"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="196"/>
-      <c r="AC3" s="196"/>
-      <c r="AD3" s="196"/>
-      <c r="AE3" s="196"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="196"/>
-      <c r="AH3" s="196"/>
-      <c r="AI3" s="196"/>
-      <c r="AJ3" s="196"/>
-      <c r="AK3" s="196"/>
-      <c r="AL3" s="196"/>
-      <c r="AM3" s="196"/>
-      <c r="AN3" s="197"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="160"/>
+      <c r="AB3" s="160"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160"/>
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="160"/>
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="160"/>
+      <c r="AJ3" s="160"/>
+      <c r="AK3" s="160"/>
+      <c r="AL3" s="160"/>
+      <c r="AM3" s="160"/>
+      <c r="AN3" s="161"/>
       <c r="AO3" s="13"/>
       <c r="AP3" s="28"/>
     </row>
-    <row r="4" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="226"/>
-      <c r="B4" s="227"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="229" t="s">
+    <row r="4" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="129"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="230"/>
-      <c r="F4" s="231" t="s">
+      <c r="E4" s="133"/>
+      <c r="F4" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="232"/>
-      <c r="H4" s="232"/>
-      <c r="I4" s="232"/>
-      <c r="J4" s="232"/>
-      <c r="K4" s="233"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="138"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="201" t="s">
+      <c r="M4" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="202"/>
-      <c r="O4" s="202"/>
-      <c r="P4" s="202"/>
-      <c r="Q4" s="203"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="167"/>
       <c r="R4" s="70"/>
-      <c r="S4" s="222">
+      <c r="S4" s="122">
         <f>AC4*AF4*AI4</f>
         <v>2520</v>
       </c>
-      <c r="T4" s="223"/>
-      <c r="U4" s="223"/>
-      <c r="V4" s="223"/>
-      <c r="W4" s="211" t="s">
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="X4" s="212"/>
+      <c r="X4" s="176"/>
       <c r="Y4" s="13"/>
-      <c r="Z4" s="192" t="s">
+      <c r="Z4" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="AA4" s="193"/>
-      <c r="AB4" s="194"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="158"/>
       <c r="AC4" s="26">
         <v>18</v>
       </c>
-      <c r="AD4" s="192" t="s">
+      <c r="AD4" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="AE4" s="194"/>
+      <c r="AE4" s="158"/>
       <c r="AF4" s="27">
         <v>28</v>
       </c>
-      <c r="AG4" s="192" t="s">
+      <c r="AG4" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="AH4" s="194"/>
+      <c r="AH4" s="158"/>
       <c r="AI4" s="27">
         <v>5</v>
       </c>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
-      <c r="AL4" s="192" t="s">
+      <c r="AL4" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="AM4" s="194"/>
+      <c r="AM4" s="158"/>
       <c r="AN4" s="31">
         <v>0.32500000000000001</v>
       </c>
       <c r="AO4" s="13"/>
       <c r="AP4" s="28"/>
     </row>
-    <row r="5" spans="1:42" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="226"/>
-      <c r="B5" s="227"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="234"/>
-      <c r="H5" s="234"/>
-      <c r="I5" s="234"/>
-      <c r="J5" s="234"/>
-      <c r="K5" s="94"/>
+    <row r="5" spans="1:42" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="129"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="135"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="204" t="s">
+      <c r="M5" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="205"/>
-      <c r="O5" s="205"/>
-      <c r="P5" s="205"/>
-      <c r="Q5" s="206"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="170"/>
       <c r="R5" s="71"/>
-      <c r="S5" s="224">
+      <c r="S5" s="124">
         <f>S4-(S4*AN4)</f>
         <v>1701</v>
       </c>
-      <c r="T5" s="225"/>
-      <c r="U5" s="225"/>
-      <c r="V5" s="225"/>
-      <c r="W5" s="213" t="s">
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="X5" s="214"/>
+      <c r="X5" s="178"/>
       <c r="Y5" s="13"/>
-      <c r="Z5" s="240" t="s">
+      <c r="Z5" s="179" t="s">
         <v>97</v>
       </c>
-      <c r="AA5" s="241"/>
-      <c r="AB5" s="241"/>
-      <c r="AC5" s="241"/>
-      <c r="AD5" s="241"/>
-      <c r="AE5" s="241"/>
-      <c r="AF5" s="241"/>
-      <c r="AG5" s="241"/>
-      <c r="AH5" s="241"/>
-      <c r="AI5" s="241"/>
-      <c r="AJ5" s="241"/>
-      <c r="AK5" s="241"/>
-      <c r="AL5" s="241"/>
-      <c r="AM5" s="241"/>
-      <c r="AN5" s="242"/>
+      <c r="AA5" s="180"/>
+      <c r="AB5" s="180"/>
+      <c r="AC5" s="180"/>
+      <c r="AD5" s="180"/>
+      <c r="AE5" s="180"/>
+      <c r="AF5" s="180"/>
+      <c r="AG5" s="180"/>
+      <c r="AH5" s="180"/>
+      <c r="AI5" s="180"/>
+      <c r="AJ5" s="180"/>
+      <c r="AK5" s="180"/>
+      <c r="AL5" s="180"/>
+      <c r="AM5" s="180"/>
+      <c r="AN5" s="181"/>
       <c r="AO5" s="13"/>
       <c r="AP5" s="28"/>
     </row>
-    <row r="6" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="176" t="s">
+    <row r="6" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="249">
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="148">
         <v>47406</v>
       </c>
-      <c r="E6" s="250"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="235"/>
-      <c r="H6" s="235"/>
-      <c r="I6" s="235"/>
-      <c r="J6" s="235"/>
-      <c r="K6" s="236"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="141"/>
       <c r="L6" s="13"/>
       <c r="M6" s="15" t="s">
         <v>65</v>
@@ -3331,159 +3331,159 @@
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
-      <c r="W6" s="207" t="s">
+      <c r="W6" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="X6" s="208"/>
+      <c r="X6" s="172"/>
       <c r="Y6" s="13"/>
-      <c r="Z6" s="243"/>
-      <c r="AA6" s="244"/>
-      <c r="AB6" s="244"/>
-      <c r="AC6" s="244"/>
-      <c r="AD6" s="244"/>
-      <c r="AE6" s="244"/>
-      <c r="AF6" s="244"/>
-      <c r="AG6" s="244"/>
-      <c r="AH6" s="244"/>
-      <c r="AI6" s="244"/>
-      <c r="AJ6" s="244"/>
-      <c r="AK6" s="244"/>
-      <c r="AL6" s="244"/>
-      <c r="AM6" s="244"/>
-      <c r="AN6" s="245"/>
+      <c r="Z6" s="182"/>
+      <c r="AA6" s="183"/>
+      <c r="AB6" s="183"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="183"/>
+      <c r="AE6" s="183"/>
+      <c r="AF6" s="183"/>
+      <c r="AG6" s="183"/>
+      <c r="AH6" s="183"/>
+      <c r="AI6" s="183"/>
+      <c r="AJ6" s="183"/>
+      <c r="AK6" s="183"/>
+      <c r="AL6" s="183"/>
+      <c r="AM6" s="183"/>
+      <c r="AN6" s="184"/>
       <c r="AO6" s="13"/>
       <c r="AP6" s="28"/>
     </row>
-    <row r="7" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="95" t="s">
+    <row r="7" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="263" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="251">
+      <c r="B7" s="263"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="150">
         <v>46288</v>
       </c>
-      <c r="E7" s="251"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="239"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="13"/>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="111"/>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="160" t="s">
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="215"/>
-      <c r="U7" s="216"/>
-      <c r="V7" s="217">
+      <c r="T7" s="115"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="117">
         <v>1</v>
       </c>
-      <c r="W7" s="218"/>
-      <c r="X7" s="219"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="119"/>
       <c r="Y7" s="13"/>
-      <c r="Z7" s="101" t="s">
+      <c r="Z7" s="266" t="s">
         <v>75</v>
       </c>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="102"/>
-      <c r="AC7" s="102"/>
-      <c r="AD7" s="102"/>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="102"/>
-      <c r="AI7" s="102"/>
-      <c r="AJ7" s="102"/>
-      <c r="AK7" s="102"/>
-      <c r="AL7" s="102"/>
-      <c r="AM7" s="102"/>
-      <c r="AN7" s="103"/>
+      <c r="AA7" s="267"/>
+      <c r="AB7" s="267"/>
+      <c r="AC7" s="267"/>
+      <c r="AD7" s="267"/>
+      <c r="AE7" s="267"/>
+      <c r="AF7" s="267"/>
+      <c r="AG7" s="267"/>
+      <c r="AH7" s="267"/>
+      <c r="AI7" s="267"/>
+      <c r="AJ7" s="267"/>
+      <c r="AK7" s="267"/>
+      <c r="AL7" s="267"/>
+      <c r="AM7" s="267"/>
+      <c r="AN7" s="268"/>
       <c r="AO7" s="13"/>
       <c r="AP7" s="28"/>
     </row>
-    <row r="8" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="176" t="s">
+    <row r="8" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="154" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="252">
+      <c r="B8" s="155"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="205">
         <v>47982</v>
       </c>
-      <c r="E8" s="251"/>
-      <c r="F8" s="271"/>
-      <c r="G8" s="271"/>
-      <c r="H8" s="271"/>
-      <c r="I8" s="271"/>
-      <c r="J8" s="271"/>
-      <c r="K8" s="272"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="103"/>
       <c r="L8" s="13"/>
-      <c r="M8" s="268" t="s">
+      <c r="M8" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="269"/>
-      <c r="O8" s="269"/>
-      <c r="P8" s="269"/>
-      <c r="Q8" s="270"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="99"/>
       <c r="R8" s="68"/>
-      <c r="S8" s="166">
+      <c r="S8" s="100">
         <f>AVERAGE(C43:AN43)</f>
         <v>73.529411764705884</v>
       </c>
-      <c r="T8" s="167"/>
-      <c r="U8" s="167"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
       <c r="V8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="W8" s="161">
+      <c r="W8" s="185">
         <f>S5/17</f>
         <v>100.05882352941177</v>
       </c>
-      <c r="X8" s="162"/>
+      <c r="X8" s="186"/>
       <c r="Y8" s="13"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
-      <c r="AI8" s="105"/>
-      <c r="AJ8" s="105"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="105"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="106"/>
+      <c r="Z8" s="200"/>
+      <c r="AA8" s="201"/>
+      <c r="AB8" s="201"/>
+      <c r="AC8" s="201"/>
+      <c r="AD8" s="201"/>
+      <c r="AE8" s="201"/>
+      <c r="AF8" s="201"/>
+      <c r="AG8" s="201"/>
+      <c r="AH8" s="201"/>
+      <c r="AI8" s="201"/>
+      <c r="AJ8" s="201"/>
+      <c r="AK8" s="201"/>
+      <c r="AL8" s="201"/>
+      <c r="AM8" s="201"/>
+      <c r="AN8" s="202"/>
       <c r="AO8" s="13"/>
       <c r="AP8" s="28"/>
     </row>
-    <row r="9" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="176" t="s">
+    <row r="9" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="154" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="252">
+      <c r="B9" s="155"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="205">
         <v>46093</v>
       </c>
-      <c r="E9" s="251"/>
-      <c r="F9" s="271"/>
-      <c r="G9" s="271"/>
-      <c r="H9" s="271"/>
-      <c r="I9" s="271"/>
-      <c r="J9" s="271"/>
-      <c r="K9" s="272"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="103"/>
       <c r="L9" s="13"/>
       <c r="M9" s="18" t="s">
         <v>68</v>
@@ -3493,54 +3493,54 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="17"/>
-      <c r="S9" s="168">
+      <c r="S9" s="190">
         <f>SUM(C43:AN43)/S5</f>
         <v>0.73486184597295712</v>
       </c>
-      <c r="T9" s="169"/>
-      <c r="U9" s="169"/>
+      <c r="T9" s="191"/>
+      <c r="U9" s="191"/>
       <c r="V9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="W9" s="163">
+      <c r="W9" s="187">
         <v>1</v>
       </c>
-      <c r="X9" s="164"/>
+      <c r="X9" s="188"/>
       <c r="Y9" s="13"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="105"/>
-      <c r="AB9" s="105"/>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="105"/>
-      <c r="AE9" s="105"/>
-      <c r="AF9" s="105"/>
-      <c r="AG9" s="105"/>
-      <c r="AH9" s="105"/>
-      <c r="AI9" s="105"/>
-      <c r="AJ9" s="105"/>
-      <c r="AK9" s="105"/>
-      <c r="AL9" s="105"/>
-      <c r="AM9" s="105"/>
-      <c r="AN9" s="106"/>
+      <c r="Z9" s="200"/>
+      <c r="AA9" s="201"/>
+      <c r="AB9" s="201"/>
+      <c r="AC9" s="201"/>
+      <c r="AD9" s="201"/>
+      <c r="AE9" s="201"/>
+      <c r="AF9" s="201"/>
+      <c r="AG9" s="201"/>
+      <c r="AH9" s="201"/>
+      <c r="AI9" s="201"/>
+      <c r="AJ9" s="201"/>
+      <c r="AK9" s="201"/>
+      <c r="AL9" s="201"/>
+      <c r="AM9" s="201"/>
+      <c r="AN9" s="202"/>
       <c r="AO9" s="13"/>
       <c r="AP9" s="28"/>
     </row>
-    <row r="10" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="177" t="s">
+    <row r="10" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="198" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="253">
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="206">
         <v>45576</v>
       </c>
-      <c r="E10" s="254"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="191"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="203"/>
+      <c r="K10" s="204"/>
       <c r="L10" s="13"/>
       <c r="M10" s="20" t="s">
         <v>69</v>
@@ -3550,315 +3550,315 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="166">
+      <c r="S10" s="100">
         <f>S5-SUM(C43:AN43)</f>
         <v>451</v>
       </c>
-      <c r="T10" s="167"/>
-      <c r="U10" s="167"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
       <c r="V10" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="W10" s="165" t="s">
+      <c r="W10" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="X10" s="164"/>
+      <c r="X10" s="188"/>
       <c r="Y10" s="13"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="105"/>
-      <c r="AB10" s="105"/>
-      <c r="AC10" s="105"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="105"/>
-      <c r="AF10" s="105"/>
-      <c r="AG10" s="105"/>
-      <c r="AH10" s="105"/>
-      <c r="AI10" s="105"/>
-      <c r="AJ10" s="105"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="105"/>
-      <c r="AM10" s="105"/>
-      <c r="AN10" s="106"/>
+      <c r="Z10" s="200"/>
+      <c r="AA10" s="201"/>
+      <c r="AB10" s="201"/>
+      <c r="AC10" s="201"/>
+      <c r="AD10" s="201"/>
+      <c r="AE10" s="201"/>
+      <c r="AF10" s="201"/>
+      <c r="AG10" s="201"/>
+      <c r="AH10" s="201"/>
+      <c r="AI10" s="201"/>
+      <c r="AJ10" s="201"/>
+      <c r="AK10" s="201"/>
+      <c r="AL10" s="201"/>
+      <c r="AM10" s="201"/>
+      <c r="AN10" s="202"/>
       <c r="AO10" s="13"/>
       <c r="AP10" s="28"/>
     </row>
-    <row r="11" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="170" t="s">
+    <row r="11" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="172"/>
+      <c r="B11" s="193"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="194"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="104" t="s">
+      <c r="M11" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="105"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="105"/>
-      <c r="U11" s="105"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="105"/>
-      <c r="X11" s="106"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="201"/>
+      <c r="R11" s="201"/>
+      <c r="S11" s="201"/>
+      <c r="T11" s="201"/>
+      <c r="U11" s="201"/>
+      <c r="V11" s="201"/>
+      <c r="W11" s="201"/>
+      <c r="X11" s="202"/>
       <c r="Y11" s="13"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="105"/>
-      <c r="AB11" s="105"/>
-      <c r="AC11" s="105"/>
-      <c r="AD11" s="105"/>
-      <c r="AE11" s="105"/>
-      <c r="AF11" s="105"/>
-      <c r="AG11" s="105"/>
-      <c r="AH11" s="105"/>
-      <c r="AI11" s="105"/>
-      <c r="AJ11" s="105"/>
-      <c r="AK11" s="105"/>
-      <c r="AL11" s="105"/>
-      <c r="AM11" s="105"/>
-      <c r="AN11" s="106"/>
+      <c r="Z11" s="200"/>
+      <c r="AA11" s="201"/>
+      <c r="AB11" s="201"/>
+      <c r="AC11" s="201"/>
+      <c r="AD11" s="201"/>
+      <c r="AE11" s="201"/>
+      <c r="AF11" s="201"/>
+      <c r="AG11" s="201"/>
+      <c r="AH11" s="201"/>
+      <c r="AI11" s="201"/>
+      <c r="AJ11" s="201"/>
+      <c r="AK11" s="201"/>
+      <c r="AL11" s="201"/>
+      <c r="AM11" s="201"/>
+      <c r="AN11" s="202"/>
       <c r="AO11" s="13"/>
       <c r="AP11" s="28"/>
     </row>
-    <row r="12" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="173"/>
-      <c r="B12" s="174"/>
-      <c r="C12" s="174"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="175"/>
+    <row r="12" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="195"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="197"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="105"/>
-      <c r="S12" s="105"/>
-      <c r="T12" s="105"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="105"/>
-      <c r="X12" s="106"/>
+      <c r="M12" s="200"/>
+      <c r="N12" s="201"/>
+      <c r="O12" s="201"/>
+      <c r="P12" s="201"/>
+      <c r="Q12" s="201"/>
+      <c r="R12" s="201"/>
+      <c r="S12" s="201"/>
+      <c r="T12" s="201"/>
+      <c r="U12" s="201"/>
+      <c r="V12" s="201"/>
+      <c r="W12" s="201"/>
+      <c r="X12" s="202"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="105"/>
-      <c r="AB12" s="105"/>
-      <c r="AC12" s="105"/>
-      <c r="AD12" s="105"/>
-      <c r="AE12" s="105"/>
-      <c r="AF12" s="105"/>
-      <c r="AG12" s="105"/>
-      <c r="AH12" s="105"/>
-      <c r="AI12" s="105"/>
-      <c r="AJ12" s="105"/>
-      <c r="AK12" s="105"/>
-      <c r="AL12" s="105"/>
-      <c r="AM12" s="105"/>
-      <c r="AN12" s="106"/>
+      <c r="Z12" s="200"/>
+      <c r="AA12" s="201"/>
+      <c r="AB12" s="201"/>
+      <c r="AC12" s="201"/>
+      <c r="AD12" s="201"/>
+      <c r="AE12" s="201"/>
+      <c r="AF12" s="201"/>
+      <c r="AG12" s="201"/>
+      <c r="AH12" s="201"/>
+      <c r="AI12" s="201"/>
+      <c r="AJ12" s="201"/>
+      <c r="AK12" s="201"/>
+      <c r="AL12" s="201"/>
+      <c r="AM12" s="201"/>
+      <c r="AN12" s="202"/>
       <c r="AO12" s="13"/>
       <c r="AP12" s="28"/>
     </row>
-    <row r="13" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="173"/>
-      <c r="B13" s="174"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="174"/>
-      <c r="K13" s="175"/>
+    <row r="13" spans="1:42" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="195"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="197"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="105"/>
-      <c r="X13" s="106"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="201"/>
+      <c r="P13" s="201"/>
+      <c r="Q13" s="201"/>
+      <c r="R13" s="201"/>
+      <c r="S13" s="201"/>
+      <c r="T13" s="201"/>
+      <c r="U13" s="201"/>
+      <c r="V13" s="201"/>
+      <c r="W13" s="201"/>
+      <c r="X13" s="202"/>
       <c r="Y13" s="13"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="105"/>
-      <c r="AB13" s="105"/>
-      <c r="AC13" s="105"/>
-      <c r="AD13" s="105"/>
-      <c r="AE13" s="105"/>
-      <c r="AF13" s="105"/>
-      <c r="AG13" s="105"/>
-      <c r="AH13" s="105"/>
-      <c r="AI13" s="105"/>
-      <c r="AJ13" s="105"/>
-      <c r="AK13" s="105"/>
-      <c r="AL13" s="105"/>
-      <c r="AM13" s="105"/>
-      <c r="AN13" s="106"/>
+      <c r="Z13" s="200"/>
+      <c r="AA13" s="201"/>
+      <c r="AB13" s="201"/>
+      <c r="AC13" s="201"/>
+      <c r="AD13" s="201"/>
+      <c r="AE13" s="201"/>
+      <c r="AF13" s="201"/>
+      <c r="AG13" s="201"/>
+      <c r="AH13" s="201"/>
+      <c r="AI13" s="201"/>
+      <c r="AJ13" s="201"/>
+      <c r="AK13" s="201"/>
+      <c r="AL13" s="201"/>
+      <c r="AM13" s="201"/>
+      <c r="AN13" s="202"/>
       <c r="AO13" s="13"/>
       <c r="AP13" s="28"/>
     </row>
-    <row r="14" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="154"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
-      <c r="S14" s="155"/>
-      <c r="T14" s="155"/>
-      <c r="U14" s="155"/>
-      <c r="V14" s="155"/>
-      <c r="W14" s="155"/>
-      <c r="X14" s="155"/>
-      <c r="Y14" s="155"/>
-      <c r="Z14" s="155"/>
-      <c r="AA14" s="155"/>
-      <c r="AB14" s="155"/>
-      <c r="AC14" s="155"/>
-      <c r="AD14" s="155"/>
-      <c r="AE14" s="155"/>
-      <c r="AF14" s="155"/>
-      <c r="AG14" s="155"/>
-      <c r="AH14" s="155"/>
-      <c r="AI14" s="155"/>
-      <c r="AJ14" s="155"/>
-      <c r="AK14" s="155"/>
-      <c r="AL14" s="155"/>
-      <c r="AM14" s="155"/>
-      <c r="AN14" s="155"/>
+    <row r="14" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="210"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="211"/>
+      <c r="N14" s="211"/>
+      <c r="O14" s="211"/>
+      <c r="P14" s="211"/>
+      <c r="Q14" s="211"/>
+      <c r="R14" s="211"/>
+      <c r="S14" s="211"/>
+      <c r="T14" s="211"/>
+      <c r="U14" s="211"/>
+      <c r="V14" s="211"/>
+      <c r="W14" s="211"/>
+      <c r="X14" s="211"/>
+      <c r="Y14" s="211"/>
+      <c r="Z14" s="211"/>
+      <c r="AA14" s="211"/>
+      <c r="AB14" s="211"/>
+      <c r="AC14" s="211"/>
+      <c r="AD14" s="211"/>
+      <c r="AE14" s="211"/>
+      <c r="AF14" s="211"/>
+      <c r="AG14" s="211"/>
+      <c r="AH14" s="211"/>
+      <c r="AI14" s="211"/>
+      <c r="AJ14" s="211"/>
+      <c r="AK14" s="211"/>
+      <c r="AL14" s="211"/>
+      <c r="AM14" s="211"/>
+      <c r="AN14" s="211"/>
       <c r="AO14" s="42"/>
       <c r="AP14" s="43"/>
     </row>
-    <row r="15" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="156"/>
-      <c r="B15" s="157"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="157"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="157"/>
-      <c r="S15" s="157"/>
-      <c r="T15" s="157"/>
-      <c r="U15" s="157"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="157"/>
-      <c r="X15" s="157"/>
-      <c r="Y15" s="157"/>
-      <c r="Z15" s="157"/>
-      <c r="AA15" s="157"/>
-      <c r="AB15" s="157"/>
-      <c r="AC15" s="157"/>
-      <c r="AD15" s="157"/>
-      <c r="AE15" s="157"/>
-      <c r="AF15" s="157"/>
-      <c r="AG15" s="157"/>
-      <c r="AH15" s="157"/>
-      <c r="AI15" s="157"/>
-      <c r="AJ15" s="157"/>
-      <c r="AK15" s="157"/>
-      <c r="AL15" s="157"/>
-      <c r="AM15" s="157"/>
-      <c r="AN15" s="157"/>
+    <row r="15" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="212"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="213"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="213"/>
+      <c r="O15" s="213"/>
+      <c r="P15" s="213"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="213"/>
+      <c r="S15" s="213"/>
+      <c r="T15" s="213"/>
+      <c r="U15" s="213"/>
+      <c r="V15" s="213"/>
+      <c r="W15" s="213"/>
+      <c r="X15" s="213"/>
+      <c r="Y15" s="213"/>
+      <c r="Z15" s="213"/>
+      <c r="AA15" s="213"/>
+      <c r="AB15" s="213"/>
+      <c r="AC15" s="213"/>
+      <c r="AD15" s="213"/>
+      <c r="AE15" s="213"/>
+      <c r="AF15" s="213"/>
+      <c r="AG15" s="213"/>
+      <c r="AH15" s="213"/>
+      <c r="AI15" s="213"/>
+      <c r="AJ15" s="213"/>
+      <c r="AK15" s="213"/>
+      <c r="AL15" s="213"/>
+      <c r="AM15" s="213"/>
+      <c r="AN15" s="213"/>
       <c r="AO15" s="14"/>
       <c r="AP15" s="29"/>
     </row>
-    <row r="16" spans="1:42" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="180" t="s">
+    <row r="16" spans="1:42" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="221" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="181"/>
-      <c r="C16" s="260" t="s">
+      <c r="B16" s="222"/>
+      <c r="C16" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="261"/>
-      <c r="E16" s="262" t="s">
+      <c r="D16" s="110"/>
+      <c r="E16" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="263"/>
-      <c r="G16" s="264"/>
-      <c r="H16" s="264"/>
-      <c r="I16" s="264"/>
-      <c r="J16" s="264"/>
-      <c r="K16" s="264"/>
-      <c r="L16" s="264"/>
-      <c r="M16" s="265"/>
-      <c r="N16" s="262" t="s">
+      <c r="F16" s="93"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="263"/>
-      <c r="P16" s="263"/>
-      <c r="Q16" s="263"/>
-      <c r="R16" s="263"/>
-      <c r="S16" s="263"/>
-      <c r="T16" s="263"/>
-      <c r="U16" s="263"/>
-      <c r="V16" s="263"/>
-      <c r="W16" s="266"/>
-      <c r="X16" s="262" t="s">
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="Y16" s="263"/>
-      <c r="Z16" s="263"/>
-      <c r="AA16" s="263"/>
-      <c r="AB16" s="263"/>
-      <c r="AC16" s="263"/>
-      <c r="AD16" s="263"/>
-      <c r="AE16" s="263"/>
-      <c r="AF16" s="263"/>
-      <c r="AG16" s="266"/>
-      <c r="AH16" s="262" t="s">
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AI16" s="263"/>
-      <c r="AJ16" s="263"/>
-      <c r="AK16" s="263"/>
-      <c r="AL16" s="263"/>
-      <c r="AM16" s="263"/>
-      <c r="AN16" s="263"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
+      <c r="AK16" s="93"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="93"/>
+      <c r="AN16" s="93"/>
       <c r="AO16" s="34" t="s">
         <v>96</v>
       </c>
@@ -3866,87 +3866,87 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="182"/>
-      <c r="B17" s="183"/>
-      <c r="C17" s="255" t="s">
+    <row r="17" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="223"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="256"/>
-      <c r="E17" s="255" t="s">
+      <c r="D17" s="95"/>
+      <c r="E17" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="267"/>
-      <c r="G17" s="120" t="s">
+      <c r="F17" s="96"/>
+      <c r="G17" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="267" t="s">
+      <c r="H17" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="256"/>
-      <c r="J17" s="255" t="s">
+      <c r="I17" s="95"/>
+      <c r="J17" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="256"/>
-      <c r="L17" s="255" t="s">
+      <c r="K17" s="95"/>
+      <c r="L17" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="256"/>
-      <c r="N17" s="255" t="s">
+      <c r="M17" s="95"/>
+      <c r="N17" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="256"/>
-      <c r="P17" s="255" t="s">
+      <c r="O17" s="95"/>
+      <c r="P17" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="256"/>
-      <c r="R17" s="120" t="s">
+      <c r="Q17" s="95"/>
+      <c r="R17" s="104" t="s">
         <v>100</v>
       </c>
-      <c r="S17" s="255" t="s">
+      <c r="S17" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="T17" s="256"/>
-      <c r="U17" s="255" t="s">
+      <c r="T17" s="95"/>
+      <c r="U17" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="V17" s="256"/>
-      <c r="W17" s="255" t="s">
+      <c r="V17" s="95"/>
+      <c r="W17" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="X17" s="256"/>
-      <c r="Y17" s="255" t="s">
+      <c r="X17" s="95"/>
+      <c r="Y17" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="Z17" s="256"/>
-      <c r="AA17" s="120" t="s">
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="AB17" s="255" t="s">
+      <c r="AB17" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="AC17" s="256"/>
-      <c r="AD17" s="255" t="s">
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AE17" s="256"/>
-      <c r="AF17" s="255" t="s">
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AG17" s="256"/>
-      <c r="AH17" s="255" t="s">
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AI17" s="256"/>
-      <c r="AJ17" s="255" t="s">
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="AK17" s="257"/>
-      <c r="AL17" s="258"/>
-      <c r="AM17" s="259" t="s">
+      <c r="AK17" s="234"/>
+      <c r="AL17" s="235"/>
+      <c r="AM17" s="236" t="s">
         <v>20</v>
       </c>
-      <c r="AN17" s="257"/>
+      <c r="AN17" s="234"/>
       <c r="AO17" s="37" t="s">
         <v>72</v>
       </c>
@@ -3954,14 +3954,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
-      <c r="B18" s="183"/>
+    <row r="18" spans="1:42" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="223"/>
+      <c r="B18" s="224"/>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
       <c r="E18" s="78"/>
       <c r="F18" s="78"/>
-      <c r="G18" s="121"/>
+      <c r="G18" s="105"/>
       <c r="H18" s="78"/>
       <c r="I18" s="78"/>
       <c r="J18" s="78"/>
@@ -3972,7 +3972,7 @@
       <c r="O18" s="78"/>
       <c r="P18" s="78"/>
       <c r="Q18" s="78"/>
-      <c r="R18" s="121"/>
+      <c r="R18" s="105"/>
       <c r="S18" s="78"/>
       <c r="T18" s="78"/>
       <c r="U18" s="78"/>
@@ -3981,7 +3981,7 @@
       <c r="X18" s="78"/>
       <c r="Y18" s="78"/>
       <c r="Z18" s="78"/>
-      <c r="AA18" s="121"/>
+      <c r="AA18" s="105"/>
       <c r="AB18" s="78"/>
       <c r="AC18" s="78"/>
       <c r="AD18" s="78"/>
@@ -3993,14 +3993,14 @@
       <c r="AJ18" s="78"/>
       <c r="AK18" s="77"/>
       <c r="AL18" s="78"/>
-      <c r="AM18" s="273"/>
-      <c r="AN18" s="274"/>
+      <c r="AM18" s="107"/>
+      <c r="AN18" s="108"/>
       <c r="AO18" s="33"/>
       <c r="AP18" s="33"/>
     </row>
-    <row r="19" spans="1:42" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="184"/>
-      <c r="B19" s="185"/>
+    <row r="19" spans="1:42" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="225"/>
+      <c r="B19" s="226"/>
       <c r="C19" s="79">
         <v>27</v>
       </c>
@@ -4013,7 +4013,7 @@
       <c r="F19" s="81">
         <v>7</v>
       </c>
-      <c r="G19" s="122"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="79">
         <v>10</v>
       </c>
@@ -4044,7 +4044,7 @@
       <c r="Q19" s="80">
         <v>12</v>
       </c>
-      <c r="R19" s="122"/>
+      <c r="R19" s="106"/>
       <c r="S19" s="80">
         <v>15</v>
       </c>
@@ -4069,7 +4069,7 @@
       <c r="Z19" s="80">
         <v>9</v>
       </c>
-      <c r="AA19" s="122"/>
+      <c r="AA19" s="106"/>
       <c r="AB19" s="80">
         <v>12</v>
       </c>
@@ -4112,18 +4112,18 @@
       <c r="AO19" s="36"/>
       <c r="AP19" s="36"/>
     </row>
-    <row r="20" spans="1:42" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="152" t="s">
+    <row r="20" spans="1:42" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="152" t="s">
+      <c r="B20" s="208" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
-      <c r="G20" s="126"/>
+      <c r="G20" s="253"/>
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
@@ -4134,7 +4134,7 @@
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
-      <c r="R20" s="126"/>
+      <c r="R20" s="253"/>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
@@ -4143,7 +4143,7 @@
       <c r="X20" s="42"/>
       <c r="Y20" s="42"/>
       <c r="Z20" s="42"/>
-      <c r="AA20" s="126"/>
+      <c r="AA20" s="253"/>
       <c r="AB20" s="42"/>
       <c r="AC20" s="42"/>
       <c r="AD20" s="42"/>
@@ -4153,25 +4153,25 @@
       <c r="AH20" s="42"/>
       <c r="AI20" s="42"/>
       <c r="AJ20" s="42"/>
-      <c r="AK20" s="137" t="s">
+      <c r="AK20" s="270" t="s">
         <v>103</v>
       </c>
       <c r="AL20" s="42"/>
-      <c r="AM20" s="139" t="s">
+      <c r="AM20" s="272" t="s">
         <v>104</v>
       </c>
-      <c r="AN20" s="140"/>
+      <c r="AN20" s="273"/>
       <c r="AO20" s="35"/>
       <c r="AP20" s="53"/>
     </row>
-    <row r="21" spans="1:42" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="153"/>
-      <c r="B21" s="153"/>
+    <row r="21" spans="1:42" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="209"/>
+      <c r="B21" s="209"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="127"/>
+      <c r="G21" s="254"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -4182,7 +4182,7 @@
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
-      <c r="R21" s="127"/>
+      <c r="R21" s="254"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
@@ -4191,7 +4191,7 @@
       <c r="X21" s="14"/>
       <c r="Y21" s="14"/>
       <c r="Z21" s="14"/>
-      <c r="AA21" s="127"/>
+      <c r="AA21" s="254"/>
       <c r="AB21" s="14"/>
       <c r="AC21" s="14"/>
       <c r="AD21" s="14"/>
@@ -4201,58 +4201,58 @@
       <c r="AH21" s="14"/>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="14"/>
-      <c r="AK21" s="138"/>
+      <c r="AK21" s="271"/>
       <c r="AL21" s="14"/>
-      <c r="AM21" s="141"/>
-      <c r="AN21" s="142"/>
+      <c r="AM21" s="274"/>
+      <c r="AN21" s="275"/>
       <c r="AO21" s="35"/>
       <c r="AP21" s="53"/>
     </row>
-    <row r="22" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="93"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="144"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="143"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="117"/>
-      <c r="W22" s="144"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="144"/>
-      <c r="Z22" s="143"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="143"/>
-      <c r="AC22" s="117"/>
-      <c r="AD22" s="144"/>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="144"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="144"/>
-      <c r="AI22" s="117"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="240"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="254"/>
+      <c r="H22" s="231"/>
+      <c r="I22" s="232"/>
+      <c r="J22" s="233"/>
+      <c r="K22" s="232"/>
+      <c r="L22" s="233"/>
+      <c r="M22" s="232"/>
+      <c r="N22" s="233"/>
+      <c r="O22" s="232"/>
+      <c r="P22" s="233"/>
+      <c r="Q22" s="231"/>
+      <c r="R22" s="254"/>
+      <c r="S22" s="231"/>
+      <c r="T22" s="232"/>
+      <c r="U22" s="233"/>
+      <c r="V22" s="232"/>
+      <c r="W22" s="233"/>
+      <c r="X22" s="232"/>
+      <c r="Y22" s="233"/>
+      <c r="Z22" s="231"/>
+      <c r="AA22" s="254"/>
+      <c r="AB22" s="231"/>
+      <c r="AC22" s="232"/>
+      <c r="AD22" s="233"/>
+      <c r="AE22" s="232"/>
+      <c r="AF22" s="233"/>
+      <c r="AG22" s="232"/>
+      <c r="AH22" s="233"/>
+      <c r="AI22" s="232"/>
       <c r="AJ22" s="66"/>
-      <c r="AK22" s="138"/>
+      <c r="AK22" s="271"/>
       <c r="AL22" s="67"/>
-      <c r="AM22" s="144"/>
-      <c r="AN22" s="145"/>
+      <c r="AM22" s="233"/>
+      <c r="AN22" s="243"/>
       <c r="AO22" s="51">
         <f t="shared" ref="AO22:AO41" si="0">SUM(C22:AN22)</f>
         <v>0</v>
@@ -4262,53 +4262,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="93">
+      <c r="C23" s="134">
         <v>25</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="144"/>
-      <c r="O23" s="117"/>
-      <c r="P23" s="144"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="117"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="144"/>
-      <c r="Z23" s="143"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="143"/>
-      <c r="AC23" s="117"/>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="117"/>
-      <c r="AF23" s="144"/>
-      <c r="AG23" s="117"/>
-      <c r="AH23" s="144"/>
-      <c r="AI23" s="117"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="231"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="231"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="233"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="233"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="233"/>
+      <c r="O23" s="232"/>
+      <c r="P23" s="233"/>
+      <c r="Q23" s="231"/>
+      <c r="R23" s="254"/>
+      <c r="S23" s="231"/>
+      <c r="T23" s="232"/>
+      <c r="U23" s="233"/>
+      <c r="V23" s="232"/>
+      <c r="W23" s="233"/>
+      <c r="X23" s="232"/>
+      <c r="Y23" s="233"/>
+      <c r="Z23" s="231"/>
+      <c r="AA23" s="254"/>
+      <c r="AB23" s="231"/>
+      <c r="AC23" s="232"/>
+      <c r="AD23" s="233"/>
+      <c r="AE23" s="232"/>
+      <c r="AF23" s="233"/>
+      <c r="AG23" s="232"/>
+      <c r="AH23" s="233"/>
+      <c r="AI23" s="232"/>
       <c r="AJ23" s="66"/>
-      <c r="AK23" s="138"/>
+      <c r="AK23" s="271"/>
       <c r="AL23" s="67"/>
-      <c r="AM23" s="144"/>
-      <c r="AN23" s="145"/>
+      <c r="AM23" s="233"/>
+      <c r="AN23" s="243"/>
       <c r="AO23" s="52">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4318,53 +4318,53 @@
         <v>1.4697236919459141E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="148">
+      <c r="C24" s="134"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="240">
         <v>55</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="148"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="148"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="148"/>
-      <c r="Q24" s="146"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="144"/>
-      <c r="V24" s="117"/>
-      <c r="W24" s="144"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="143"/>
-      <c r="AA24" s="127"/>
-      <c r="AB24" s="143"/>
-      <c r="AC24" s="117"/>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="144"/>
-      <c r="AG24" s="117"/>
-      <c r="AH24" s="144"/>
-      <c r="AI24" s="117"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="242"/>
+      <c r="J24" s="240"/>
+      <c r="K24" s="242"/>
+      <c r="L24" s="240"/>
+      <c r="M24" s="242"/>
+      <c r="N24" s="240"/>
+      <c r="O24" s="242"/>
+      <c r="P24" s="240"/>
+      <c r="Q24" s="241"/>
+      <c r="R24" s="254"/>
+      <c r="S24" s="231"/>
+      <c r="T24" s="232"/>
+      <c r="U24" s="233"/>
+      <c r="V24" s="232"/>
+      <c r="W24" s="233"/>
+      <c r="X24" s="232"/>
+      <c r="Y24" s="233"/>
+      <c r="Z24" s="231"/>
+      <c r="AA24" s="254"/>
+      <c r="AB24" s="231"/>
+      <c r="AC24" s="232"/>
+      <c r="AD24" s="233"/>
+      <c r="AE24" s="232"/>
+      <c r="AF24" s="233"/>
+      <c r="AG24" s="232"/>
+      <c r="AH24" s="233"/>
+      <c r="AI24" s="232"/>
       <c r="AJ24" s="66"/>
-      <c r="AK24" s="138"/>
+      <c r="AK24" s="271"/>
       <c r="AL24" s="67"/>
-      <c r="AM24" s="144"/>
-      <c r="AN24" s="145"/>
+      <c r="AM24" s="233"/>
+      <c r="AN24" s="243"/>
       <c r="AO24" s="52">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4374,51 +4374,51 @@
         <v>3.2333921222810112E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="148"/>
-      <c r="O25" s="147"/>
-      <c r="P25" s="148"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="144"/>
-      <c r="V25" s="117"/>
-      <c r="W25" s="144"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="144"/>
-      <c r="Z25" s="143"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="143"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="144"/>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="144"/>
-      <c r="AG25" s="117"/>
-      <c r="AH25" s="144"/>
-      <c r="AI25" s="117"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="241"/>
+      <c r="I25" s="242"/>
+      <c r="J25" s="240"/>
+      <c r="K25" s="242"/>
+      <c r="L25" s="240"/>
+      <c r="M25" s="242"/>
+      <c r="N25" s="240"/>
+      <c r="O25" s="242"/>
+      <c r="P25" s="240"/>
+      <c r="Q25" s="241"/>
+      <c r="R25" s="254"/>
+      <c r="S25" s="231"/>
+      <c r="T25" s="232"/>
+      <c r="U25" s="233"/>
+      <c r="V25" s="232"/>
+      <c r="W25" s="233"/>
+      <c r="X25" s="232"/>
+      <c r="Y25" s="233"/>
+      <c r="Z25" s="231"/>
+      <c r="AA25" s="254"/>
+      <c r="AB25" s="231"/>
+      <c r="AC25" s="232"/>
+      <c r="AD25" s="233"/>
+      <c r="AE25" s="232"/>
+      <c r="AF25" s="233"/>
+      <c r="AG25" s="232"/>
+      <c r="AH25" s="233"/>
+      <c r="AI25" s="232"/>
       <c r="AJ25" s="66"/>
-      <c r="AK25" s="138"/>
+      <c r="AK25" s="271"/>
       <c r="AL25" s="67"/>
-      <c r="AM25" s="144"/>
-      <c r="AN25" s="145"/>
+      <c r="AM25" s="233"/>
+      <c r="AN25" s="243"/>
       <c r="AO25" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4428,57 +4428,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="146">
+      <c r="C26" s="151"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="231"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="241">
         <v>80</v>
       </c>
-      <c r="I26" s="147"/>
-      <c r="J26" s="148">
+      <c r="I26" s="242"/>
+      <c r="J26" s="240">
         <v>80</v>
       </c>
-      <c r="K26" s="147"/>
-      <c r="L26" s="148">
+      <c r="K26" s="242"/>
+      <c r="L26" s="240">
         <v>30</v>
       </c>
-      <c r="M26" s="147"/>
-      <c r="N26" s="148"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="148"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="144"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="144"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="144"/>
-      <c r="Z26" s="143"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="143"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="144"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="144"/>
-      <c r="AG26" s="117"/>
-      <c r="AH26" s="144"/>
-      <c r="AI26" s="117"/>
+      <c r="M26" s="242"/>
+      <c r="N26" s="240"/>
+      <c r="O26" s="242"/>
+      <c r="P26" s="240"/>
+      <c r="Q26" s="241"/>
+      <c r="R26" s="254"/>
+      <c r="S26" s="231"/>
+      <c r="T26" s="232"/>
+      <c r="U26" s="233"/>
+      <c r="V26" s="232"/>
+      <c r="W26" s="233"/>
+      <c r="X26" s="232"/>
+      <c r="Y26" s="233"/>
+      <c r="Z26" s="231"/>
+      <c r="AA26" s="254"/>
+      <c r="AB26" s="231"/>
+      <c r="AC26" s="232"/>
+      <c r="AD26" s="233"/>
+      <c r="AE26" s="232"/>
+      <c r="AF26" s="233"/>
+      <c r="AG26" s="232"/>
+      <c r="AH26" s="233"/>
+      <c r="AI26" s="232"/>
       <c r="AJ26" s="66"/>
-      <c r="AK26" s="138"/>
+      <c r="AK26" s="271"/>
       <c r="AL26" s="67"/>
-      <c r="AM26" s="144"/>
-      <c r="AN26" s="145"/>
+      <c r="AM26" s="233"/>
+      <c r="AN26" s="243"/>
       <c r="AO26" s="52">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -4488,51 +4488,51 @@
         <v>0.11169900058788948</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="127"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="146"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="146"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="146"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="148"/>
-      <c r="Z27" s="146"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="143"/>
-      <c r="AC27" s="117"/>
-      <c r="AD27" s="144"/>
-      <c r="AE27" s="117"/>
-      <c r="AF27" s="144"/>
-      <c r="AG27" s="117"/>
-      <c r="AH27" s="144"/>
-      <c r="AI27" s="117"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="231"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="241"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="240"/>
+      <c r="K27" s="242"/>
+      <c r="L27" s="240"/>
+      <c r="M27" s="242"/>
+      <c r="N27" s="240"/>
+      <c r="O27" s="242"/>
+      <c r="P27" s="240"/>
+      <c r="Q27" s="241"/>
+      <c r="R27" s="254"/>
+      <c r="S27" s="241"/>
+      <c r="T27" s="242"/>
+      <c r="U27" s="241"/>
+      <c r="V27" s="242"/>
+      <c r="W27" s="241"/>
+      <c r="X27" s="242"/>
+      <c r="Y27" s="240"/>
+      <c r="Z27" s="241"/>
+      <c r="AA27" s="254"/>
+      <c r="AB27" s="231"/>
+      <c r="AC27" s="232"/>
+      <c r="AD27" s="233"/>
+      <c r="AE27" s="232"/>
+      <c r="AF27" s="233"/>
+      <c r="AG27" s="232"/>
+      <c r="AH27" s="233"/>
+      <c r="AI27" s="232"/>
       <c r="AJ27" s="66"/>
-      <c r="AK27" s="138"/>
+      <c r="AK27" s="271"/>
       <c r="AL27" s="67"/>
-      <c r="AM27" s="144"/>
-      <c r="AN27" s="145"/>
+      <c r="AM27" s="233"/>
+      <c r="AN27" s="243"/>
       <c r="AO27" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4542,73 +4542,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148">
+      <c r="C28" s="151"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="231"/>
+      <c r="G28" s="254"/>
+      <c r="H28" s="241"/>
+      <c r="I28" s="242"/>
+      <c r="J28" s="240"/>
+      <c r="K28" s="242"/>
+      <c r="L28" s="240">
         <v>20</v>
       </c>
-      <c r="M28" s="147"/>
-      <c r="N28" s="148">
+      <c r="M28" s="242"/>
+      <c r="N28" s="240">
         <v>25</v>
       </c>
-      <c r="O28" s="147"/>
-      <c r="P28" s="148">
+      <c r="O28" s="242"/>
+      <c r="P28" s="240">
         <v>25</v>
       </c>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="146">
+      <c r="Q28" s="241"/>
+      <c r="R28" s="254"/>
+      <c r="S28" s="241">
         <v>25</v>
       </c>
-      <c r="T28" s="147"/>
-      <c r="U28" s="146">
+      <c r="T28" s="242"/>
+      <c r="U28" s="241">
         <v>25</v>
       </c>
-      <c r="V28" s="147"/>
-      <c r="W28" s="146">
+      <c r="V28" s="242"/>
+      <c r="W28" s="241">
         <v>25</v>
       </c>
-      <c r="X28" s="147"/>
-      <c r="Y28" s="148">
+      <c r="X28" s="242"/>
+      <c r="Y28" s="240">
         <v>20</v>
       </c>
-      <c r="Z28" s="146"/>
-      <c r="AA28" s="127"/>
-      <c r="AB28" s="143">
+      <c r="Z28" s="241"/>
+      <c r="AA28" s="254"/>
+      <c r="AB28" s="231">
         <v>20</v>
       </c>
-      <c r="AC28" s="117"/>
-      <c r="AD28" s="143">
+      <c r="AC28" s="232"/>
+      <c r="AD28" s="231">
         <v>20</v>
       </c>
-      <c r="AE28" s="117"/>
-      <c r="AF28" s="143">
+      <c r="AE28" s="232"/>
+      <c r="AF28" s="231">
         <v>20</v>
       </c>
-      <c r="AG28" s="117"/>
-      <c r="AH28" s="143">
+      <c r="AG28" s="232"/>
+      <c r="AH28" s="231">
         <v>20</v>
       </c>
-      <c r="AI28" s="117"/>
+      <c r="AI28" s="232"/>
       <c r="AJ28" s="66"/>
-      <c r="AK28" s="138"/>
+      <c r="AK28" s="271"/>
       <c r="AL28" s="67"/>
-      <c r="AM28" s="144"/>
-      <c r="AN28" s="145"/>
+      <c r="AM28" s="233"/>
+      <c r="AN28" s="243"/>
       <c r="AO28" s="52">
         <f t="shared" si="0"/>
         <v>245</v>
@@ -4618,73 +4618,73 @@
         <v>0.1440329218106996</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148">
+      <c r="C29" s="151"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="231"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="241"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="240"/>
+      <c r="K29" s="242"/>
+      <c r="L29" s="240">
         <v>20</v>
       </c>
-      <c r="M29" s="147"/>
-      <c r="N29" s="148">
+      <c r="M29" s="242"/>
+      <c r="N29" s="240">
         <v>25</v>
       </c>
-      <c r="O29" s="147"/>
-      <c r="P29" s="148">
+      <c r="O29" s="242"/>
+      <c r="P29" s="240">
         <v>25</v>
       </c>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="146">
+      <c r="Q29" s="241"/>
+      <c r="R29" s="254"/>
+      <c r="S29" s="241">
         <v>20</v>
       </c>
-      <c r="T29" s="147"/>
-      <c r="U29" s="146">
+      <c r="T29" s="242"/>
+      <c r="U29" s="241">
         <v>20</v>
       </c>
-      <c r="V29" s="147"/>
-      <c r="W29" s="146">
+      <c r="V29" s="242"/>
+      <c r="W29" s="241">
         <v>20</v>
       </c>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="148">
+      <c r="X29" s="242"/>
+      <c r="Y29" s="240">
         <v>15</v>
       </c>
-      <c r="Z29" s="146"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="143">
+      <c r="Z29" s="241"/>
+      <c r="AA29" s="254"/>
+      <c r="AB29" s="231">
         <v>20</v>
       </c>
-      <c r="AC29" s="117"/>
-      <c r="AD29" s="143">
+      <c r="AC29" s="232"/>
+      <c r="AD29" s="231">
         <v>20</v>
       </c>
-      <c r="AE29" s="117"/>
-      <c r="AF29" s="143">
+      <c r="AE29" s="232"/>
+      <c r="AF29" s="231">
         <v>20</v>
       </c>
-      <c r="AG29" s="117"/>
-      <c r="AH29" s="143">
+      <c r="AG29" s="232"/>
+      <c r="AH29" s="231">
         <v>20</v>
       </c>
-      <c r="AI29" s="117"/>
+      <c r="AI29" s="232"/>
       <c r="AJ29" s="66"/>
-      <c r="AK29" s="138"/>
+      <c r="AK29" s="271"/>
       <c r="AL29" s="67"/>
-      <c r="AM29" s="144"/>
-      <c r="AN29" s="145"/>
+      <c r="AM29" s="233"/>
+      <c r="AN29" s="243"/>
       <c r="AO29" s="52">
         <f t="shared" si="0"/>
         <v>225</v>
@@ -4694,8 +4694,8 @@
         <v>0.13227513227513227</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="275" t="s">
+    <row r="30" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="91" t="s">
         <v>125</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -4705,7 +4705,7 @@
       <c r="D30" s="87"/>
       <c r="E30" s="84"/>
       <c r="F30" s="82"/>
-      <c r="G30" s="127"/>
+      <c r="G30" s="254"/>
       <c r="H30" s="90"/>
       <c r="I30" s="89"/>
       <c r="J30" s="88"/>
@@ -4716,7 +4716,7 @@
       <c r="O30" s="89"/>
       <c r="P30" s="88"/>
       <c r="Q30" s="90"/>
-      <c r="R30" s="127"/>
+      <c r="R30" s="254"/>
       <c r="S30" s="90"/>
       <c r="T30" s="89"/>
       <c r="U30" s="90"/>
@@ -4725,7 +4725,7 @@
       <c r="X30" s="89"/>
       <c r="Y30" s="88"/>
       <c r="Z30" s="90"/>
-      <c r="AA30" s="127"/>
+      <c r="AA30" s="254"/>
       <c r="AB30" s="82"/>
       <c r="AC30" s="83"/>
       <c r="AD30" s="82"/>
@@ -4735,7 +4735,7 @@
       <c r="AH30" s="82"/>
       <c r="AI30" s="83"/>
       <c r="AJ30" s="84"/>
-      <c r="AK30" s="138"/>
+      <c r="AK30" s="271"/>
       <c r="AL30" s="83"/>
       <c r="AM30" s="84"/>
       <c r="AN30" s="85"/>
@@ -4748,73 +4748,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="144">
+      <c r="C31" s="151"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="231"/>
+      <c r="G31" s="254"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="232"/>
+      <c r="J31" s="233"/>
+      <c r="K31" s="232"/>
+      <c r="L31" s="233">
         <v>15</v>
       </c>
-      <c r="M31" s="117"/>
-      <c r="N31" s="148">
+      <c r="M31" s="232"/>
+      <c r="N31" s="240">
         <v>25</v>
       </c>
-      <c r="O31" s="147"/>
-      <c r="P31" s="148">
+      <c r="O31" s="242"/>
+      <c r="P31" s="240">
         <v>25</v>
       </c>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="146">
+      <c r="Q31" s="241"/>
+      <c r="R31" s="254"/>
+      <c r="S31" s="241">
         <v>25</v>
       </c>
-      <c r="T31" s="147"/>
-      <c r="U31" s="146">
+      <c r="T31" s="242"/>
+      <c r="U31" s="241">
         <v>25</v>
       </c>
-      <c r="V31" s="147"/>
-      <c r="W31" s="146">
+      <c r="V31" s="242"/>
+      <c r="W31" s="241">
         <v>25</v>
       </c>
-      <c r="X31" s="147"/>
-      <c r="Y31" s="148">
+      <c r="X31" s="242"/>
+      <c r="Y31" s="240">
         <v>20</v>
       </c>
-      <c r="Z31" s="146"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="143">
+      <c r="Z31" s="241"/>
+      <c r="AA31" s="254"/>
+      <c r="AB31" s="231">
         <v>20</v>
       </c>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="143">
+      <c r="AC31" s="232"/>
+      <c r="AD31" s="231">
         <v>20</v>
       </c>
-      <c r="AE31" s="117"/>
-      <c r="AF31" s="143">
+      <c r="AE31" s="232"/>
+      <c r="AF31" s="231">
         <v>20</v>
       </c>
-      <c r="AG31" s="117"/>
-      <c r="AH31" s="143">
+      <c r="AG31" s="232"/>
+      <c r="AH31" s="231">
         <v>20</v>
       </c>
-      <c r="AI31" s="117"/>
+      <c r="AI31" s="232"/>
       <c r="AJ31" s="66"/>
-      <c r="AK31" s="138"/>
+      <c r="AK31" s="271"/>
       <c r="AL31" s="67"/>
-      <c r="AM31" s="144"/>
-      <c r="AN31" s="145"/>
+      <c r="AM31" s="233"/>
+      <c r="AN31" s="243"/>
       <c r="AO31" s="52">
         <f t="shared" si="0"/>
         <v>240</v>
@@ -4824,73 +4824,73 @@
         <v>0.14109347442680775</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="144">
+      <c r="C32" s="151"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="233"/>
+      <c r="F32" s="231"/>
+      <c r="G32" s="254"/>
+      <c r="H32" s="231"/>
+      <c r="I32" s="232"/>
+      <c r="J32" s="233"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="233">
         <v>15</v>
       </c>
-      <c r="M32" s="117"/>
-      <c r="N32" s="148">
+      <c r="M32" s="232"/>
+      <c r="N32" s="240">
         <v>25</v>
       </c>
-      <c r="O32" s="147"/>
-      <c r="P32" s="148">
+      <c r="O32" s="242"/>
+      <c r="P32" s="240">
         <v>25</v>
       </c>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="127"/>
-      <c r="S32" s="146">
+      <c r="Q32" s="241"/>
+      <c r="R32" s="254"/>
+      <c r="S32" s="241">
         <v>20</v>
       </c>
-      <c r="T32" s="147"/>
-      <c r="U32" s="146">
+      <c r="T32" s="242"/>
+      <c r="U32" s="241">
         <v>20</v>
       </c>
-      <c r="V32" s="147"/>
-      <c r="W32" s="146">
+      <c r="V32" s="242"/>
+      <c r="W32" s="241">
         <v>20</v>
       </c>
-      <c r="X32" s="147"/>
-      <c r="Y32" s="148">
+      <c r="X32" s="242"/>
+      <c r="Y32" s="240">
         <v>15</v>
       </c>
-      <c r="Z32" s="146"/>
-      <c r="AA32" s="127"/>
-      <c r="AB32" s="143">
+      <c r="Z32" s="241"/>
+      <c r="AA32" s="254"/>
+      <c r="AB32" s="231">
         <v>20</v>
       </c>
-      <c r="AC32" s="117"/>
-      <c r="AD32" s="143">
+      <c r="AC32" s="232"/>
+      <c r="AD32" s="231">
         <v>20</v>
       </c>
-      <c r="AE32" s="117"/>
-      <c r="AF32" s="143">
+      <c r="AE32" s="232"/>
+      <c r="AF32" s="231">
         <v>20</v>
       </c>
-      <c r="AG32" s="117"/>
-      <c r="AH32" s="143">
+      <c r="AG32" s="232"/>
+      <c r="AH32" s="231">
         <v>20</v>
       </c>
-      <c r="AI32" s="117"/>
+      <c r="AI32" s="232"/>
       <c r="AJ32" s="66"/>
-      <c r="AK32" s="138"/>
+      <c r="AK32" s="271"/>
       <c r="AL32" s="67"/>
-      <c r="AM32" s="144"/>
-      <c r="AN32" s="145"/>
+      <c r="AM32" s="233"/>
+      <c r="AN32" s="243"/>
       <c r="AO32" s="52">
         <f t="shared" si="0"/>
         <v>220</v>
@@ -4900,51 +4900,51 @@
         <v>0.12933568489124045</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="148"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="148"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="147"/>
-      <c r="Y33" s="148"/>
-      <c r="Z33" s="146"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="143"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="144"/>
-      <c r="AE33" s="117"/>
-      <c r="AF33" s="144"/>
-      <c r="AG33" s="117"/>
-      <c r="AH33" s="144"/>
-      <c r="AI33" s="117"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="231"/>
+      <c r="G33" s="254"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="233"/>
+      <c r="K33" s="232"/>
+      <c r="L33" s="233"/>
+      <c r="M33" s="232"/>
+      <c r="N33" s="240"/>
+      <c r="O33" s="242"/>
+      <c r="P33" s="240"/>
+      <c r="Q33" s="241"/>
+      <c r="R33" s="254"/>
+      <c r="S33" s="241"/>
+      <c r="T33" s="242"/>
+      <c r="U33" s="240"/>
+      <c r="V33" s="242"/>
+      <c r="W33" s="240"/>
+      <c r="X33" s="242"/>
+      <c r="Y33" s="240"/>
+      <c r="Z33" s="241"/>
+      <c r="AA33" s="254"/>
+      <c r="AB33" s="231"/>
+      <c r="AC33" s="232"/>
+      <c r="AD33" s="233"/>
+      <c r="AE33" s="232"/>
+      <c r="AF33" s="233"/>
+      <c r="AG33" s="232"/>
+      <c r="AH33" s="233"/>
+      <c r="AI33" s="232"/>
       <c r="AJ33" s="66"/>
-      <c r="AK33" s="138"/>
+      <c r="AK33" s="271"/>
       <c r="AL33" s="67"/>
-      <c r="AM33" s="144"/>
-      <c r="AN33" s="145"/>
+      <c r="AM33" s="233"/>
+      <c r="AN33" s="243"/>
       <c r="AO33" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4954,53 +4954,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="147"/>
-      <c r="P34" s="148">
+      <c r="C34" s="151"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="231"/>
+      <c r="G34" s="254"/>
+      <c r="H34" s="231"/>
+      <c r="I34" s="232"/>
+      <c r="J34" s="233"/>
+      <c r="K34" s="232"/>
+      <c r="L34" s="233"/>
+      <c r="M34" s="232"/>
+      <c r="N34" s="240"/>
+      <c r="O34" s="242"/>
+      <c r="P34" s="240">
         <v>10</v>
       </c>
-      <c r="Q34" s="146"/>
-      <c r="R34" s="127"/>
-      <c r="S34" s="146"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="148"/>
-      <c r="V34" s="147"/>
-      <c r="W34" s="148"/>
-      <c r="X34" s="147"/>
-      <c r="Y34" s="148"/>
-      <c r="Z34" s="146"/>
-      <c r="AA34" s="127"/>
-      <c r="AB34" s="143"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="144"/>
-      <c r="AE34" s="117"/>
-      <c r="AF34" s="144"/>
-      <c r="AG34" s="117"/>
-      <c r="AH34" s="144"/>
-      <c r="AI34" s="117"/>
+      <c r="Q34" s="241"/>
+      <c r="R34" s="254"/>
+      <c r="S34" s="241"/>
+      <c r="T34" s="242"/>
+      <c r="U34" s="240"/>
+      <c r="V34" s="242"/>
+      <c r="W34" s="240"/>
+      <c r="X34" s="242"/>
+      <c r="Y34" s="240"/>
+      <c r="Z34" s="241"/>
+      <c r="AA34" s="254"/>
+      <c r="AB34" s="231"/>
+      <c r="AC34" s="232"/>
+      <c r="AD34" s="233"/>
+      <c r="AE34" s="232"/>
+      <c r="AF34" s="233"/>
+      <c r="AG34" s="232"/>
+      <c r="AH34" s="233"/>
+      <c r="AI34" s="232"/>
       <c r="AJ34" s="66"/>
-      <c r="AK34" s="138"/>
+      <c r="AK34" s="271"/>
       <c r="AL34" s="67"/>
-      <c r="AM34" s="144"/>
-      <c r="AN34" s="145"/>
+      <c r="AM34" s="233"/>
+      <c r="AN34" s="243"/>
       <c r="AO34" s="52">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5010,51 +5010,51 @@
         <v>5.8788947677836569E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="148"/>
-      <c r="O35" s="147"/>
-      <c r="P35" s="148"/>
-      <c r="Q35" s="146"/>
-      <c r="R35" s="127"/>
-      <c r="S35" s="146"/>
-      <c r="T35" s="147"/>
-      <c r="U35" s="148"/>
-      <c r="V35" s="147"/>
-      <c r="W35" s="148"/>
-      <c r="X35" s="147"/>
-      <c r="Y35" s="148"/>
-      <c r="Z35" s="146"/>
-      <c r="AA35" s="127"/>
-      <c r="AB35" s="143"/>
-      <c r="AC35" s="117"/>
-      <c r="AD35" s="144"/>
-      <c r="AE35" s="117"/>
-      <c r="AF35" s="144"/>
-      <c r="AG35" s="117"/>
-      <c r="AH35" s="144"/>
-      <c r="AI35" s="117"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="233"/>
+      <c r="F35" s="231"/>
+      <c r="G35" s="254"/>
+      <c r="H35" s="231"/>
+      <c r="I35" s="232"/>
+      <c r="J35" s="233"/>
+      <c r="K35" s="232"/>
+      <c r="L35" s="233"/>
+      <c r="M35" s="232"/>
+      <c r="N35" s="240"/>
+      <c r="O35" s="242"/>
+      <c r="P35" s="240"/>
+      <c r="Q35" s="241"/>
+      <c r="R35" s="254"/>
+      <c r="S35" s="241"/>
+      <c r="T35" s="242"/>
+      <c r="U35" s="240"/>
+      <c r="V35" s="242"/>
+      <c r="W35" s="240"/>
+      <c r="X35" s="242"/>
+      <c r="Y35" s="240"/>
+      <c r="Z35" s="241"/>
+      <c r="AA35" s="254"/>
+      <c r="AB35" s="231"/>
+      <c r="AC35" s="232"/>
+      <c r="AD35" s="233"/>
+      <c r="AE35" s="232"/>
+      <c r="AF35" s="233"/>
+      <c r="AG35" s="232"/>
+      <c r="AH35" s="233"/>
+      <c r="AI35" s="232"/>
       <c r="AJ35" s="66"/>
-      <c r="AK35" s="138"/>
+      <c r="AK35" s="271"/>
       <c r="AL35" s="67"/>
-      <c r="AM35" s="144"/>
-      <c r="AN35" s="145"/>
+      <c r="AM35" s="233"/>
+      <c r="AN35" s="243"/>
       <c r="AO35" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5064,53 +5064,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="127"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="144"/>
-      <c r="O36" s="117"/>
-      <c r="P36" s="144"/>
-      <c r="Q36" s="143"/>
-      <c r="R36" s="127"/>
-      <c r="S36" s="146"/>
-      <c r="T36" s="147"/>
-      <c r="U36" s="148"/>
-      <c r="V36" s="147"/>
-      <c r="W36" s="148"/>
-      <c r="X36" s="147"/>
-      <c r="Y36" s="148">
+      <c r="C36" s="151"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="233"/>
+      <c r="F36" s="231"/>
+      <c r="G36" s="254"/>
+      <c r="H36" s="231"/>
+      <c r="I36" s="232"/>
+      <c r="J36" s="233"/>
+      <c r="K36" s="232"/>
+      <c r="L36" s="233"/>
+      <c r="M36" s="232"/>
+      <c r="N36" s="233"/>
+      <c r="O36" s="232"/>
+      <c r="P36" s="233"/>
+      <c r="Q36" s="231"/>
+      <c r="R36" s="254"/>
+      <c r="S36" s="241"/>
+      <c r="T36" s="242"/>
+      <c r="U36" s="240"/>
+      <c r="V36" s="242"/>
+      <c r="W36" s="240"/>
+      <c r="X36" s="242"/>
+      <c r="Y36" s="240">
         <v>10</v>
       </c>
-      <c r="Z36" s="146"/>
-      <c r="AA36" s="127"/>
-      <c r="AB36" s="143"/>
-      <c r="AC36" s="117"/>
-      <c r="AD36" s="144"/>
-      <c r="AE36" s="117"/>
-      <c r="AF36" s="144"/>
-      <c r="AG36" s="117"/>
-      <c r="AH36" s="144"/>
-      <c r="AI36" s="117"/>
+      <c r="Z36" s="241"/>
+      <c r="AA36" s="254"/>
+      <c r="AB36" s="231"/>
+      <c r="AC36" s="232"/>
+      <c r="AD36" s="233"/>
+      <c r="AE36" s="232"/>
+      <c r="AF36" s="233"/>
+      <c r="AG36" s="232"/>
+      <c r="AH36" s="233"/>
+      <c r="AI36" s="232"/>
       <c r="AJ36" s="66"/>
-      <c r="AK36" s="138"/>
+      <c r="AK36" s="271"/>
       <c r="AL36" s="67"/>
-      <c r="AM36" s="144"/>
-      <c r="AN36" s="145"/>
+      <c r="AM36" s="233"/>
+      <c r="AN36" s="243"/>
       <c r="AO36" s="52">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5120,51 +5120,51 @@
         <v>5.8788947677836569E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="144"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="144"/>
-      <c r="O37" s="117"/>
-      <c r="P37" s="144"/>
-      <c r="Q37" s="143"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="146"/>
-      <c r="T37" s="147"/>
-      <c r="U37" s="148"/>
-      <c r="V37" s="147"/>
-      <c r="W37" s="148"/>
-      <c r="X37" s="147"/>
-      <c r="Y37" s="148"/>
-      <c r="Z37" s="146"/>
-      <c r="AA37" s="127"/>
-      <c r="AB37" s="143"/>
-      <c r="AC37" s="117"/>
-      <c r="AD37" s="144"/>
-      <c r="AE37" s="117"/>
-      <c r="AF37" s="144"/>
-      <c r="AG37" s="117"/>
-      <c r="AH37" s="144"/>
-      <c r="AI37" s="117"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="233"/>
+      <c r="F37" s="231"/>
+      <c r="G37" s="254"/>
+      <c r="H37" s="231"/>
+      <c r="I37" s="232"/>
+      <c r="J37" s="233"/>
+      <c r="K37" s="232"/>
+      <c r="L37" s="233"/>
+      <c r="M37" s="232"/>
+      <c r="N37" s="233"/>
+      <c r="O37" s="232"/>
+      <c r="P37" s="233"/>
+      <c r="Q37" s="231"/>
+      <c r="R37" s="254"/>
+      <c r="S37" s="241"/>
+      <c r="T37" s="242"/>
+      <c r="U37" s="240"/>
+      <c r="V37" s="242"/>
+      <c r="W37" s="240"/>
+      <c r="X37" s="242"/>
+      <c r="Y37" s="240"/>
+      <c r="Z37" s="241"/>
+      <c r="AA37" s="254"/>
+      <c r="AB37" s="231"/>
+      <c r="AC37" s="232"/>
+      <c r="AD37" s="233"/>
+      <c r="AE37" s="232"/>
+      <c r="AF37" s="233"/>
+      <c r="AG37" s="232"/>
+      <c r="AH37" s="233"/>
+      <c r="AI37" s="232"/>
       <c r="AJ37" s="66"/>
-      <c r="AK37" s="138"/>
+      <c r="AK37" s="271"/>
       <c r="AL37" s="67"/>
-      <c r="AM37" s="144"/>
-      <c r="AN37" s="145"/>
+      <c r="AM37" s="233"/>
+      <c r="AN37" s="243"/>
       <c r="AO37" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5174,53 +5174,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="144"/>
-      <c r="Q38" s="143"/>
-      <c r="R38" s="127"/>
-      <c r="S38" s="146"/>
-      <c r="T38" s="147"/>
-      <c r="U38" s="148"/>
-      <c r="V38" s="147"/>
-      <c r="W38" s="148"/>
-      <c r="X38" s="147"/>
-      <c r="Y38" s="148"/>
-      <c r="Z38" s="146"/>
-      <c r="AA38" s="127"/>
-      <c r="AB38" s="143">
+      <c r="C38" s="151"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="233"/>
+      <c r="F38" s="231"/>
+      <c r="G38" s="254"/>
+      <c r="H38" s="231"/>
+      <c r="I38" s="232"/>
+      <c r="J38" s="233"/>
+      <c r="K38" s="232"/>
+      <c r="L38" s="233"/>
+      <c r="M38" s="232"/>
+      <c r="N38" s="233"/>
+      <c r="O38" s="232"/>
+      <c r="P38" s="233"/>
+      <c r="Q38" s="231"/>
+      <c r="R38" s="254"/>
+      <c r="S38" s="241"/>
+      <c r="T38" s="242"/>
+      <c r="U38" s="240"/>
+      <c r="V38" s="242"/>
+      <c r="W38" s="240"/>
+      <c r="X38" s="242"/>
+      <c r="Y38" s="240"/>
+      <c r="Z38" s="241"/>
+      <c r="AA38" s="254"/>
+      <c r="AB38" s="231">
         <v>10</v>
       </c>
-      <c r="AC38" s="117"/>
-      <c r="AD38" s="144"/>
-      <c r="AE38" s="117"/>
-      <c r="AF38" s="144"/>
-      <c r="AG38" s="117"/>
-      <c r="AH38" s="144"/>
-      <c r="AI38" s="117"/>
+      <c r="AC38" s="232"/>
+      <c r="AD38" s="233"/>
+      <c r="AE38" s="232"/>
+      <c r="AF38" s="233"/>
+      <c r="AG38" s="232"/>
+      <c r="AH38" s="233"/>
+      <c r="AI38" s="232"/>
       <c r="AJ38" s="66"/>
-      <c r="AK38" s="138"/>
+      <c r="AK38" s="271"/>
       <c r="AL38" s="67"/>
-      <c r="AM38" s="144"/>
-      <c r="AN38" s="145"/>
+      <c r="AM38" s="233"/>
+      <c r="AN38" s="243"/>
       <c r="AO38" s="52">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5230,53 +5230,53 @@
         <v>5.8788947677836569E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="144"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="144"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="144"/>
-      <c r="Q39" s="143"/>
-      <c r="R39" s="127"/>
-      <c r="S39" s="146"/>
-      <c r="T39" s="147"/>
-      <c r="U39" s="148"/>
-      <c r="V39" s="147"/>
-      <c r="W39" s="148"/>
-      <c r="X39" s="147"/>
-      <c r="Y39" s="148"/>
-      <c r="Z39" s="146"/>
-      <c r="AA39" s="127"/>
-      <c r="AB39" s="143">
+      <c r="C39" s="151"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="233"/>
+      <c r="F39" s="231"/>
+      <c r="G39" s="254"/>
+      <c r="H39" s="231"/>
+      <c r="I39" s="232"/>
+      <c r="J39" s="233"/>
+      <c r="K39" s="232"/>
+      <c r="L39" s="233"/>
+      <c r="M39" s="232"/>
+      <c r="N39" s="233"/>
+      <c r="O39" s="232"/>
+      <c r="P39" s="233"/>
+      <c r="Q39" s="231"/>
+      <c r="R39" s="254"/>
+      <c r="S39" s="241"/>
+      <c r="T39" s="242"/>
+      <c r="U39" s="240"/>
+      <c r="V39" s="242"/>
+      <c r="W39" s="240"/>
+      <c r="X39" s="242"/>
+      <c r="Y39" s="240"/>
+      <c r="Z39" s="241"/>
+      <c r="AA39" s="254"/>
+      <c r="AB39" s="231">
         <v>10</v>
       </c>
-      <c r="AC39" s="117"/>
-      <c r="AD39" s="144"/>
-      <c r="AE39" s="117"/>
-      <c r="AF39" s="144"/>
-      <c r="AG39" s="117"/>
-      <c r="AH39" s="144"/>
-      <c r="AI39" s="117"/>
+      <c r="AC39" s="232"/>
+      <c r="AD39" s="233"/>
+      <c r="AE39" s="232"/>
+      <c r="AF39" s="233"/>
+      <c r="AG39" s="232"/>
+      <c r="AH39" s="233"/>
+      <c r="AI39" s="232"/>
       <c r="AJ39" s="66"/>
-      <c r="AK39" s="138"/>
+      <c r="AK39" s="271"/>
       <c r="AL39" s="67"/>
-      <c r="AM39" s="144"/>
-      <c r="AN39" s="145"/>
+      <c r="AM39" s="233"/>
+      <c r="AN39" s="243"/>
       <c r="AO39" s="52">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5286,53 +5286,53 @@
         <v>5.8788947677836569E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="144"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="144"/>
-      <c r="O40" s="117"/>
-      <c r="P40" s="144"/>
-      <c r="Q40" s="143"/>
-      <c r="R40" s="127"/>
-      <c r="S40" s="146"/>
-      <c r="T40" s="147"/>
-      <c r="U40" s="148"/>
-      <c r="V40" s="147"/>
-      <c r="W40" s="148"/>
-      <c r="X40" s="147"/>
-      <c r="Y40" s="148"/>
-      <c r="Z40" s="146"/>
-      <c r="AA40" s="127"/>
-      <c r="AB40" s="143"/>
-      <c r="AC40" s="117"/>
-      <c r="AD40" s="144"/>
-      <c r="AE40" s="117"/>
-      <c r="AF40" s="144"/>
-      <c r="AG40" s="117"/>
-      <c r="AH40" s="144"/>
-      <c r="AI40" s="117"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="233"/>
+      <c r="F40" s="231"/>
+      <c r="G40" s="254"/>
+      <c r="H40" s="231"/>
+      <c r="I40" s="232"/>
+      <c r="J40" s="233"/>
+      <c r="K40" s="232"/>
+      <c r="L40" s="233"/>
+      <c r="M40" s="232"/>
+      <c r="N40" s="233"/>
+      <c r="O40" s="232"/>
+      <c r="P40" s="233"/>
+      <c r="Q40" s="231"/>
+      <c r="R40" s="254"/>
+      <c r="S40" s="241"/>
+      <c r="T40" s="242"/>
+      <c r="U40" s="240"/>
+      <c r="V40" s="242"/>
+      <c r="W40" s="240"/>
+      <c r="X40" s="242"/>
+      <c r="Y40" s="240"/>
+      <c r="Z40" s="241"/>
+      <c r="AA40" s="254"/>
+      <c r="AB40" s="231"/>
+      <c r="AC40" s="232"/>
+      <c r="AD40" s="233"/>
+      <c r="AE40" s="232"/>
+      <c r="AF40" s="233"/>
+      <c r="AG40" s="232"/>
+      <c r="AH40" s="233"/>
+      <c r="AI40" s="232"/>
       <c r="AJ40" s="66">
         <v>10</v>
       </c>
-      <c r="AK40" s="138"/>
+      <c r="AK40" s="271"/>
       <c r="AL40" s="67"/>
-      <c r="AM40" s="144"/>
-      <c r="AN40" s="145"/>
+      <c r="AM40" s="233"/>
+      <c r="AN40" s="243"/>
       <c r="AO40" s="52">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5342,53 +5342,53 @@
         <v>5.8788947677836569E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="144"/>
-      <c r="O41" s="117"/>
-      <c r="P41" s="144"/>
-      <c r="Q41" s="143"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="143"/>
-      <c r="T41" s="117"/>
-      <c r="U41" s="144"/>
-      <c r="V41" s="117"/>
-      <c r="W41" s="144"/>
-      <c r="X41" s="117"/>
-      <c r="Y41" s="144"/>
-      <c r="Z41" s="143"/>
-      <c r="AA41" s="127"/>
-      <c r="AB41" s="143"/>
-      <c r="AC41" s="117"/>
-      <c r="AD41" s="144"/>
-      <c r="AE41" s="117"/>
-      <c r="AF41" s="144"/>
-      <c r="AG41" s="117"/>
-      <c r="AH41" s="144"/>
-      <c r="AI41" s="117"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="233"/>
+      <c r="F41" s="231"/>
+      <c r="G41" s="254"/>
+      <c r="H41" s="231"/>
+      <c r="I41" s="232"/>
+      <c r="J41" s="233"/>
+      <c r="K41" s="232"/>
+      <c r="L41" s="233"/>
+      <c r="M41" s="232"/>
+      <c r="N41" s="233"/>
+      <c r="O41" s="232"/>
+      <c r="P41" s="233"/>
+      <c r="Q41" s="231"/>
+      <c r="R41" s="254"/>
+      <c r="S41" s="231"/>
+      <c r="T41" s="232"/>
+      <c r="U41" s="233"/>
+      <c r="V41" s="232"/>
+      <c r="W41" s="233"/>
+      <c r="X41" s="232"/>
+      <c r="Y41" s="233"/>
+      <c r="Z41" s="231"/>
+      <c r="AA41" s="254"/>
+      <c r="AB41" s="231"/>
+      <c r="AC41" s="232"/>
+      <c r="AD41" s="233"/>
+      <c r="AE41" s="232"/>
+      <c r="AF41" s="233"/>
+      <c r="AG41" s="232"/>
+      <c r="AH41" s="233"/>
+      <c r="AI41" s="232"/>
       <c r="AJ41" s="66"/>
-      <c r="AK41" s="138"/>
+      <c r="AK41" s="271"/>
       <c r="AL41" s="67">
         <v>15</v>
       </c>
-      <c r="AM41" s="144"/>
-      <c r="AN41" s="145"/>
+      <c r="AM41" s="233"/>
+      <c r="AN41" s="243"/>
       <c r="AO41" s="52">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5398,14 +5398,14 @@
         <v>8.8183421516754845E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="55"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="126"/>
+      <c r="G42" s="253"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -5416,7 +5416,7 @@
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
-      <c r="R42" s="127"/>
+      <c r="R42" s="254"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
@@ -5425,7 +5425,7 @@
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
-      <c r="AA42" s="127"/>
+      <c r="AA42" s="254"/>
       <c r="AB42" s="6"/>
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
@@ -5442,100 +5442,100 @@
       <c r="AO42" s="6"/>
       <c r="AP42" s="7"/>
     </row>
-    <row r="43" spans="1:42" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="186" t="s">
+    <row r="43" spans="1:42" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="227" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="187"/>
-      <c r="C43" s="160">
+      <c r="B43" s="228"/>
+      <c r="C43" s="114">
         <f>SUM(C22:C41)</f>
         <v>25</v>
       </c>
-      <c r="D43" s="151"/>
-      <c r="E43" s="135">
+      <c r="D43" s="216"/>
+      <c r="E43" s="217">
         <f>SUM(E22:E41)</f>
         <v>55</v>
       </c>
-      <c r="F43" s="150"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="151">
+      <c r="F43" s="218"/>
+      <c r="G43" s="254"/>
+      <c r="H43" s="216">
         <f>SUM(H22:H41)</f>
         <v>80</v>
       </c>
-      <c r="I43" s="135"/>
-      <c r="J43" s="135">
+      <c r="I43" s="217"/>
+      <c r="J43" s="217">
         <f>SUM(J22:J41)</f>
         <v>80</v>
       </c>
-      <c r="K43" s="135"/>
-      <c r="L43" s="135">
+      <c r="K43" s="217"/>
+      <c r="L43" s="217">
         <f>SUM(L22:L41)</f>
         <v>100</v>
       </c>
-      <c r="M43" s="135"/>
-      <c r="N43" s="135">
+      <c r="M43" s="217"/>
+      <c r="N43" s="217">
         <f>SUM(N22:N41)</f>
         <v>100</v>
       </c>
-      <c r="O43" s="135"/>
-      <c r="P43" s="135">
+      <c r="O43" s="217"/>
+      <c r="P43" s="217">
         <f>SUM(P22:P41)</f>
         <v>110</v>
       </c>
-      <c r="Q43" s="150"/>
-      <c r="R43" s="127"/>
-      <c r="S43" s="151">
+      <c r="Q43" s="218"/>
+      <c r="R43" s="254"/>
+      <c r="S43" s="216">
         <f>SUM(S22:S41)</f>
         <v>90</v>
       </c>
-      <c r="T43" s="135"/>
-      <c r="U43" s="135">
+      <c r="T43" s="217"/>
+      <c r="U43" s="217">
         <f>SUM(U22:U41)</f>
         <v>90</v>
       </c>
-      <c r="V43" s="135"/>
-      <c r="W43" s="135">
+      <c r="V43" s="217"/>
+      <c r="W43" s="217">
         <f>SUM(W22:W41)</f>
         <v>90</v>
       </c>
-      <c r="X43" s="135"/>
-      <c r="Y43" s="135">
+      <c r="X43" s="217"/>
+      <c r="Y43" s="217">
         <f>SUM(Y22:Y41)</f>
         <v>80</v>
       </c>
-      <c r="Z43" s="150"/>
-      <c r="AA43" s="127"/>
-      <c r="AB43" s="151">
+      <c r="Z43" s="218"/>
+      <c r="AA43" s="254"/>
+      <c r="AB43" s="216">
         <f>SUM(AB22:AB41)</f>
         <v>100</v>
       </c>
-      <c r="AC43" s="135"/>
-      <c r="AD43" s="135">
+      <c r="AC43" s="217"/>
+      <c r="AD43" s="217">
         <f>SUM(AD22:AD41)</f>
         <v>80</v>
       </c>
-      <c r="AE43" s="135"/>
-      <c r="AF43" s="135">
+      <c r="AE43" s="217"/>
+      <c r="AF43" s="217">
         <f>SUM(AF22:AF41)</f>
         <v>80</v>
       </c>
-      <c r="AG43" s="135"/>
-      <c r="AH43" s="135">
+      <c r="AG43" s="217"/>
+      <c r="AH43" s="217">
         <f>SUM(AH22:AH41)</f>
         <v>80</v>
       </c>
-      <c r="AI43" s="135"/>
-      <c r="AJ43" s="135">
+      <c r="AI43" s="217"/>
+      <c r="AJ43" s="217">
         <f>SUM(AJ22:AJ41)</f>
         <v>10</v>
       </c>
-      <c r="AK43" s="135"/>
-      <c r="AL43" s="135"/>
-      <c r="AM43" s="135">
+      <c r="AK43" s="217"/>
+      <c r="AL43" s="217"/>
+      <c r="AM43" s="217">
         <f>SUM(AM22:AM41)</f>
         <v>0</v>
       </c>
-      <c r="AN43" s="136"/>
+      <c r="AN43" s="269"/>
       <c r="AO43" s="59">
         <f>SUM(C43:AN43)</f>
         <v>1250</v>
@@ -5545,83 +5545,83 @@
         <v>0.73529411764705888</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="188" t="s">
+    <row r="44" spans="1:42" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="229" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="189"/>
-      <c r="C44" s="96">
+      <c r="B44" s="230"/>
+      <c r="C44" s="264">
         <v>100</v>
       </c>
-      <c r="D44" s="97"/>
-      <c r="E44" s="133">
+      <c r="D44" s="265"/>
+      <c r="E44" s="237">
         <v>100</v>
       </c>
-      <c r="F44" s="134"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="149">
+      <c r="F44" s="238"/>
+      <c r="G44" s="254"/>
+      <c r="H44" s="239">
         <v>100</v>
       </c>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133">
+      <c r="I44" s="237"/>
+      <c r="J44" s="237">
         <v>100</v>
       </c>
-      <c r="K44" s="133"/>
-      <c r="L44" s="133">
+      <c r="K44" s="237"/>
+      <c r="L44" s="237">
         <v>100</v>
       </c>
-      <c r="M44" s="133"/>
-      <c r="N44" s="133">
+      <c r="M44" s="237"/>
+      <c r="N44" s="237">
         <v>100</v>
       </c>
-      <c r="O44" s="133"/>
-      <c r="P44" s="133">
+      <c r="O44" s="237"/>
+      <c r="P44" s="237">
         <v>100</v>
       </c>
-      <c r="Q44" s="134"/>
-      <c r="R44" s="127"/>
-      <c r="S44" s="149">
+      <c r="Q44" s="238"/>
+      <c r="R44" s="254"/>
+      <c r="S44" s="239">
         <v>100</v>
       </c>
-      <c r="T44" s="133"/>
-      <c r="U44" s="133">
+      <c r="T44" s="237"/>
+      <c r="U44" s="237">
         <v>100</v>
       </c>
-      <c r="V44" s="133"/>
-      <c r="W44" s="133">
+      <c r="V44" s="237"/>
+      <c r="W44" s="237">
         <v>100</v>
       </c>
-      <c r="X44" s="133"/>
-      <c r="Y44" s="133">
+      <c r="X44" s="237"/>
+      <c r="Y44" s="237">
         <v>100</v>
       </c>
-      <c r="Z44" s="134"/>
-      <c r="AA44" s="127"/>
-      <c r="AB44" s="149">
+      <c r="Z44" s="238"/>
+      <c r="AA44" s="254"/>
+      <c r="AB44" s="239">
         <v>100</v>
       </c>
-      <c r="AC44" s="133"/>
-      <c r="AD44" s="133">
+      <c r="AC44" s="237"/>
+      <c r="AD44" s="237">
         <v>100</v>
       </c>
-      <c r="AE44" s="133"/>
-      <c r="AF44" s="133">
+      <c r="AE44" s="237"/>
+      <c r="AF44" s="237">
         <v>100</v>
       </c>
-      <c r="AG44" s="133"/>
-      <c r="AH44" s="133">
+      <c r="AG44" s="237"/>
+      <c r="AH44" s="237">
         <v>100</v>
       </c>
-      <c r="AI44" s="133"/>
-      <c r="AJ44" s="133">
+      <c r="AI44" s="237"/>
+      <c r="AJ44" s="237">
         <v>100</v>
       </c>
-      <c r="AK44" s="133"/>
-      <c r="AL44" s="133"/>
-      <c r="AM44" s="133">
+      <c r="AK44" s="237"/>
+      <c r="AL44" s="237"/>
+      <c r="AM44" s="237">
         <v>100</v>
       </c>
-      <c r="AN44" s="134"/>
+      <c r="AN44" s="238"/>
       <c r="AO44" s="48">
         <f>SUM(C44:AN44)</f>
         <v>1700</v>
@@ -5631,83 +5631,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="45"/>
       <c r="B45" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="118">
+      <c r="C45" s="244">
         <v>120</v>
       </c>
-      <c r="D45" s="119"/>
-      <c r="E45" s="118">
+      <c r="D45" s="246"/>
+      <c r="E45" s="244">
         <v>120</v>
       </c>
-      <c r="F45" s="132"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="132">
+      <c r="F45" s="245"/>
+      <c r="G45" s="254"/>
+      <c r="H45" s="245">
         <v>120</v>
       </c>
-      <c r="I45" s="119"/>
-      <c r="J45" s="118">
+      <c r="I45" s="246"/>
+      <c r="J45" s="244">
         <v>120</v>
       </c>
-      <c r="K45" s="119"/>
-      <c r="L45" s="118">
+      <c r="K45" s="246"/>
+      <c r="L45" s="244">
         <v>120</v>
       </c>
-      <c r="M45" s="119"/>
-      <c r="N45" s="118">
+      <c r="M45" s="246"/>
+      <c r="N45" s="244">
         <v>120</v>
       </c>
-      <c r="O45" s="119"/>
-      <c r="P45" s="118">
+      <c r="O45" s="246"/>
+      <c r="P45" s="244">
         <v>120</v>
       </c>
-      <c r="Q45" s="132"/>
-      <c r="R45" s="127"/>
-      <c r="S45" s="132">
+      <c r="Q45" s="245"/>
+      <c r="R45" s="254"/>
+      <c r="S45" s="245">
         <v>120</v>
       </c>
-      <c r="T45" s="119"/>
-      <c r="U45" s="118">
+      <c r="T45" s="246"/>
+      <c r="U45" s="244">
         <v>120</v>
       </c>
-      <c r="V45" s="119"/>
-      <c r="W45" s="118">
+      <c r="V45" s="246"/>
+      <c r="W45" s="244">
         <v>120</v>
       </c>
-      <c r="X45" s="119"/>
-      <c r="Y45" s="118">
+      <c r="X45" s="246"/>
+      <c r="Y45" s="244">
         <v>120</v>
       </c>
-      <c r="Z45" s="132"/>
-      <c r="AA45" s="127"/>
-      <c r="AB45" s="132">
+      <c r="Z45" s="245"/>
+      <c r="AA45" s="254"/>
+      <c r="AB45" s="245">
         <v>120</v>
       </c>
-      <c r="AC45" s="119"/>
-      <c r="AD45" s="118">
+      <c r="AC45" s="246"/>
+      <c r="AD45" s="244">
         <v>120</v>
       </c>
-      <c r="AE45" s="119"/>
-      <c r="AF45" s="118">
+      <c r="AE45" s="246"/>
+      <c r="AF45" s="244">
         <v>120</v>
       </c>
-      <c r="AG45" s="119"/>
-      <c r="AH45" s="118">
+      <c r="AG45" s="246"/>
+      <c r="AH45" s="244">
         <v>120</v>
       </c>
-      <c r="AI45" s="119"/>
-      <c r="AJ45" s="118">
+      <c r="AI45" s="246"/>
+      <c r="AJ45" s="244">
         <v>120</v>
       </c>
-      <c r="AK45" s="132"/>
-      <c r="AL45" s="119"/>
-      <c r="AM45" s="118">
+      <c r="AK45" s="245"/>
+      <c r="AL45" s="246"/>
+      <c r="AM45" s="244">
         <v>120</v>
       </c>
-      <c r="AN45" s="132"/>
+      <c r="AN45" s="245"/>
       <c r="AO45" s="49">
         <f>SUM(C45:AN45)</f>
         <v>2040</v>
@@ -5717,16 +5717,16 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="178" t="s">
+    <row r="46" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="179"/>
+      <c r="B46" s="220"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="127"/>
+      <c r="G46" s="254"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
@@ -5737,7 +5737,7 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
-      <c r="R46" s="127"/>
+      <c r="R46" s="254"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
@@ -5746,7 +5746,7 @@
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
-      <c r="AA46" s="127"/>
+      <c r="AA46" s="254"/>
       <c r="AB46" s="6"/>
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
@@ -5763,51 +5763,51 @@
       <c r="AO46" s="56"/>
       <c r="AP46" s="57"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="130"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
-      <c r="K47" s="130"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="130"/>
-      <c r="O47" s="130"/>
-      <c r="P47" s="130"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="127"/>
-      <c r="S47" s="117"/>
-      <c r="T47" s="130"/>
-      <c r="U47" s="130"/>
-      <c r="V47" s="130"/>
-      <c r="W47" s="130"/>
-      <c r="X47" s="130"/>
-      <c r="Y47" s="130"/>
-      <c r="Z47" s="116"/>
-      <c r="AA47" s="127"/>
-      <c r="AB47" s="117"/>
-      <c r="AC47" s="130"/>
-      <c r="AD47" s="130"/>
-      <c r="AE47" s="130"/>
-      <c r="AF47" s="130"/>
-      <c r="AG47" s="130"/>
-      <c r="AH47" s="130"/>
-      <c r="AI47" s="130"/>
+      <c r="C47" s="248"/>
+      <c r="D47" s="232"/>
+      <c r="E47" s="247"/>
+      <c r="F47" s="248"/>
+      <c r="G47" s="254"/>
+      <c r="H47" s="232"/>
+      <c r="I47" s="247"/>
+      <c r="J47" s="247"/>
+      <c r="K47" s="247"/>
+      <c r="L47" s="247"/>
+      <c r="M47" s="247"/>
+      <c r="N47" s="247"/>
+      <c r="O47" s="247"/>
+      <c r="P47" s="247"/>
+      <c r="Q47" s="248"/>
+      <c r="R47" s="254"/>
+      <c r="S47" s="232"/>
+      <c r="T47" s="247"/>
+      <c r="U47" s="247"/>
+      <c r="V47" s="247"/>
+      <c r="W47" s="247"/>
+      <c r="X47" s="247"/>
+      <c r="Y47" s="247"/>
+      <c r="Z47" s="248"/>
+      <c r="AA47" s="254"/>
+      <c r="AB47" s="232"/>
+      <c r="AC47" s="247"/>
+      <c r="AD47" s="247"/>
+      <c r="AE47" s="247"/>
+      <c r="AF47" s="247"/>
+      <c r="AG47" s="247"/>
+      <c r="AH47" s="247"/>
+      <c r="AI47" s="247"/>
       <c r="AJ47" s="72"/>
-      <c r="AK47" s="126"/>
+      <c r="AK47" s="253"/>
       <c r="AL47" s="67"/>
-      <c r="AM47" s="130"/>
-      <c r="AN47" s="131"/>
+      <c r="AM47" s="247"/>
+      <c r="AN47" s="249"/>
       <c r="AO47" s="38">
         <f t="shared" ref="AO47:AO58" si="2">SUM(C47:AN47)</f>
         <v>0</v>
@@ -5817,51 +5817,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="114"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="124"/>
-      <c r="O48" s="124"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="114"/>
-      <c r="R48" s="127"/>
-      <c r="S48" s="115"/>
-      <c r="T48" s="124"/>
-      <c r="U48" s="124"/>
-      <c r="V48" s="124"/>
-      <c r="W48" s="124"/>
-      <c r="X48" s="124"/>
-      <c r="Y48" s="124"/>
-      <c r="Z48" s="114"/>
-      <c r="AA48" s="127"/>
-      <c r="AB48" s="115"/>
-      <c r="AC48" s="124"/>
-      <c r="AD48" s="124"/>
-      <c r="AE48" s="124"/>
-      <c r="AF48" s="124"/>
-      <c r="AG48" s="124"/>
-      <c r="AH48" s="124"/>
-      <c r="AI48" s="124"/>
+      <c r="C48" s="250"/>
+      <c r="D48" s="251"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="250"/>
+      <c r="G48" s="254"/>
+      <c r="H48" s="251"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="155"/>
+      <c r="N48" s="155"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="155"/>
+      <c r="Q48" s="250"/>
+      <c r="R48" s="254"/>
+      <c r="S48" s="251"/>
+      <c r="T48" s="155"/>
+      <c r="U48" s="155"/>
+      <c r="V48" s="155"/>
+      <c r="W48" s="155"/>
+      <c r="X48" s="155"/>
+      <c r="Y48" s="155"/>
+      <c r="Z48" s="250"/>
+      <c r="AA48" s="254"/>
+      <c r="AB48" s="251"/>
+      <c r="AC48" s="155"/>
+      <c r="AD48" s="155"/>
+      <c r="AE48" s="155"/>
+      <c r="AF48" s="155"/>
+      <c r="AG48" s="155"/>
+      <c r="AH48" s="155"/>
+      <c r="AI48" s="155"/>
       <c r="AJ48" s="73"/>
-      <c r="AK48" s="127"/>
+      <c r="AK48" s="254"/>
       <c r="AL48" s="75"/>
-      <c r="AM48" s="124"/>
-      <c r="AN48" s="129"/>
+      <c r="AM48" s="155"/>
+      <c r="AN48" s="252"/>
       <c r="AO48" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5871,51 +5871,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="124"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="114"/>
-      <c r="R49" s="127"/>
-      <c r="S49" s="115"/>
-      <c r="T49" s="124"/>
-      <c r="U49" s="124"/>
-      <c r="V49" s="124"/>
-      <c r="W49" s="124"/>
-      <c r="X49" s="124"/>
-      <c r="Y49" s="124"/>
-      <c r="Z49" s="114"/>
-      <c r="AA49" s="127"/>
-      <c r="AB49" s="115"/>
-      <c r="AC49" s="124"/>
-      <c r="AD49" s="124"/>
-      <c r="AE49" s="124"/>
-      <c r="AF49" s="124"/>
-      <c r="AG49" s="124"/>
-      <c r="AH49" s="124"/>
-      <c r="AI49" s="124"/>
+      <c r="C49" s="250"/>
+      <c r="D49" s="251"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="250"/>
+      <c r="G49" s="254"/>
+      <c r="H49" s="251"/>
+      <c r="I49" s="155"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="155"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
+      <c r="N49" s="155"/>
+      <c r="O49" s="155"/>
+      <c r="P49" s="155"/>
+      <c r="Q49" s="250"/>
+      <c r="R49" s="254"/>
+      <c r="S49" s="251"/>
+      <c r="T49" s="155"/>
+      <c r="U49" s="155"/>
+      <c r="V49" s="155"/>
+      <c r="W49" s="155"/>
+      <c r="X49" s="155"/>
+      <c r="Y49" s="155"/>
+      <c r="Z49" s="250"/>
+      <c r="AA49" s="254"/>
+      <c r="AB49" s="251"/>
+      <c r="AC49" s="155"/>
+      <c r="AD49" s="155"/>
+      <c r="AE49" s="155"/>
+      <c r="AF49" s="155"/>
+      <c r="AG49" s="155"/>
+      <c r="AH49" s="155"/>
+      <c r="AI49" s="155"/>
       <c r="AJ49" s="73"/>
-      <c r="AK49" s="127"/>
+      <c r="AK49" s="254"/>
       <c r="AL49" s="75"/>
-      <c r="AM49" s="124"/>
-      <c r="AN49" s="129"/>
+      <c r="AM49" s="155"/>
+      <c r="AN49" s="252"/>
       <c r="AO49" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5925,51 +5925,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="124"/>
-      <c r="O50" s="124"/>
-      <c r="P50" s="124"/>
-      <c r="Q50" s="114"/>
-      <c r="R50" s="127"/>
-      <c r="S50" s="115"/>
-      <c r="T50" s="124"/>
-      <c r="U50" s="124"/>
-      <c r="V50" s="124"/>
-      <c r="W50" s="124"/>
-      <c r="X50" s="124"/>
-      <c r="Y50" s="124"/>
-      <c r="Z50" s="114"/>
-      <c r="AA50" s="127"/>
-      <c r="AB50" s="115"/>
-      <c r="AC50" s="124"/>
-      <c r="AD50" s="124"/>
-      <c r="AE50" s="124"/>
-      <c r="AF50" s="124"/>
-      <c r="AG50" s="124"/>
-      <c r="AH50" s="124"/>
-      <c r="AI50" s="124"/>
+      <c r="C50" s="250"/>
+      <c r="D50" s="251"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="250"/>
+      <c r="G50" s="254"/>
+      <c r="H50" s="251"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
+      <c r="N50" s="155"/>
+      <c r="O50" s="155"/>
+      <c r="P50" s="155"/>
+      <c r="Q50" s="250"/>
+      <c r="R50" s="254"/>
+      <c r="S50" s="251"/>
+      <c r="T50" s="155"/>
+      <c r="U50" s="155"/>
+      <c r="V50" s="155"/>
+      <c r="W50" s="155"/>
+      <c r="X50" s="155"/>
+      <c r="Y50" s="155"/>
+      <c r="Z50" s="250"/>
+      <c r="AA50" s="254"/>
+      <c r="AB50" s="251"/>
+      <c r="AC50" s="155"/>
+      <c r="AD50" s="155"/>
+      <c r="AE50" s="155"/>
+      <c r="AF50" s="155"/>
+      <c r="AG50" s="155"/>
+      <c r="AH50" s="155"/>
+      <c r="AI50" s="155"/>
       <c r="AJ50" s="73"/>
-      <c r="AK50" s="127"/>
+      <c r="AK50" s="254"/>
       <c r="AL50" s="75"/>
-      <c r="AM50" s="124"/>
-      <c r="AN50" s="129"/>
+      <c r="AM50" s="155"/>
+      <c r="AN50" s="252"/>
       <c r="AO50" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5979,51 +5979,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C51" s="114"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="127"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="124"/>
-      <c r="M51" s="124"/>
-      <c r="N51" s="124"/>
-      <c r="O51" s="124"/>
-      <c r="P51" s="124"/>
-      <c r="Q51" s="114"/>
-      <c r="R51" s="127"/>
-      <c r="S51" s="115"/>
-      <c r="T51" s="124"/>
-      <c r="U51" s="124"/>
-      <c r="V51" s="124"/>
-      <c r="W51" s="124"/>
-      <c r="X51" s="124"/>
-      <c r="Y51" s="124"/>
-      <c r="Z51" s="114"/>
-      <c r="AA51" s="127"/>
-      <c r="AB51" s="115"/>
-      <c r="AC51" s="124"/>
-      <c r="AD51" s="124"/>
-      <c r="AE51" s="124"/>
-      <c r="AF51" s="124"/>
-      <c r="AG51" s="124"/>
-      <c r="AH51" s="124"/>
-      <c r="AI51" s="124"/>
+      <c r="C51" s="250"/>
+      <c r="D51" s="251"/>
+      <c r="E51" s="155"/>
+      <c r="F51" s="250"/>
+      <c r="G51" s="254"/>
+      <c r="H51" s="251"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
+      <c r="N51" s="155"/>
+      <c r="O51" s="155"/>
+      <c r="P51" s="155"/>
+      <c r="Q51" s="250"/>
+      <c r="R51" s="254"/>
+      <c r="S51" s="251"/>
+      <c r="T51" s="155"/>
+      <c r="U51" s="155"/>
+      <c r="V51" s="155"/>
+      <c r="W51" s="155"/>
+      <c r="X51" s="155"/>
+      <c r="Y51" s="155"/>
+      <c r="Z51" s="250"/>
+      <c r="AA51" s="254"/>
+      <c r="AB51" s="251"/>
+      <c r="AC51" s="155"/>
+      <c r="AD51" s="155"/>
+      <c r="AE51" s="155"/>
+      <c r="AF51" s="155"/>
+      <c r="AG51" s="155"/>
+      <c r="AH51" s="155"/>
+      <c r="AI51" s="155"/>
       <c r="AJ51" s="73"/>
-      <c r="AK51" s="127"/>
+      <c r="AK51" s="254"/>
       <c r="AL51" s="75"/>
-      <c r="AM51" s="124"/>
-      <c r="AN51" s="129"/>
+      <c r="AM51" s="155"/>
+      <c r="AN51" s="252"/>
       <c r="AO51" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6033,51 +6033,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="124"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="124"/>
-      <c r="O52" s="124"/>
-      <c r="P52" s="124"/>
-      <c r="Q52" s="114"/>
-      <c r="R52" s="127"/>
-      <c r="S52" s="115"/>
-      <c r="T52" s="124"/>
-      <c r="U52" s="124"/>
-      <c r="V52" s="124"/>
-      <c r="W52" s="124"/>
-      <c r="X52" s="124"/>
-      <c r="Y52" s="124"/>
-      <c r="Z52" s="114"/>
-      <c r="AA52" s="127"/>
-      <c r="AB52" s="115"/>
-      <c r="AC52" s="124"/>
-      <c r="AD52" s="124"/>
-      <c r="AE52" s="124"/>
-      <c r="AF52" s="124"/>
-      <c r="AG52" s="124"/>
-      <c r="AH52" s="124"/>
-      <c r="AI52" s="124"/>
+      <c r="C52" s="250"/>
+      <c r="D52" s="251"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="250"/>
+      <c r="G52" s="254"/>
+      <c r="H52" s="251"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
+      <c r="N52" s="155"/>
+      <c r="O52" s="155"/>
+      <c r="P52" s="155"/>
+      <c r="Q52" s="250"/>
+      <c r="R52" s="254"/>
+      <c r="S52" s="251"/>
+      <c r="T52" s="155"/>
+      <c r="U52" s="155"/>
+      <c r="V52" s="155"/>
+      <c r="W52" s="155"/>
+      <c r="X52" s="155"/>
+      <c r="Y52" s="155"/>
+      <c r="Z52" s="250"/>
+      <c r="AA52" s="254"/>
+      <c r="AB52" s="251"/>
+      <c r="AC52" s="155"/>
+      <c r="AD52" s="155"/>
+      <c r="AE52" s="155"/>
+      <c r="AF52" s="155"/>
+      <c r="AG52" s="155"/>
+      <c r="AH52" s="155"/>
+      <c r="AI52" s="155"/>
       <c r="AJ52" s="73"/>
-      <c r="AK52" s="127"/>
+      <c r="AK52" s="254"/>
       <c r="AL52" s="75"/>
-      <c r="AM52" s="124"/>
-      <c r="AN52" s="129"/>
+      <c r="AM52" s="155"/>
+      <c r="AN52" s="252"/>
       <c r="AO52" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6087,51 +6087,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="114"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="114"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="124"/>
-      <c r="L53" s="124"/>
-      <c r="M53" s="124"/>
-      <c r="N53" s="124"/>
-      <c r="O53" s="124"/>
-      <c r="P53" s="124"/>
-      <c r="Q53" s="114"/>
-      <c r="R53" s="127"/>
-      <c r="S53" s="115"/>
-      <c r="T53" s="124"/>
-      <c r="U53" s="124"/>
-      <c r="V53" s="124"/>
-      <c r="W53" s="124"/>
-      <c r="X53" s="124"/>
-      <c r="Y53" s="124"/>
-      <c r="Z53" s="114"/>
-      <c r="AA53" s="127"/>
-      <c r="AB53" s="115"/>
-      <c r="AC53" s="124"/>
-      <c r="AD53" s="124"/>
-      <c r="AE53" s="124"/>
-      <c r="AF53" s="124"/>
-      <c r="AG53" s="124"/>
-      <c r="AH53" s="124"/>
-      <c r="AI53" s="124"/>
+      <c r="C53" s="250"/>
+      <c r="D53" s="251"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="250"/>
+      <c r="G53" s="254"/>
+      <c r="H53" s="251"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="155"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
+      <c r="N53" s="155"/>
+      <c r="O53" s="155"/>
+      <c r="P53" s="155"/>
+      <c r="Q53" s="250"/>
+      <c r="R53" s="254"/>
+      <c r="S53" s="251"/>
+      <c r="T53" s="155"/>
+      <c r="U53" s="155"/>
+      <c r="V53" s="155"/>
+      <c r="W53" s="155"/>
+      <c r="X53" s="155"/>
+      <c r="Y53" s="155"/>
+      <c r="Z53" s="250"/>
+      <c r="AA53" s="254"/>
+      <c r="AB53" s="251"/>
+      <c r="AC53" s="155"/>
+      <c r="AD53" s="155"/>
+      <c r="AE53" s="155"/>
+      <c r="AF53" s="155"/>
+      <c r="AG53" s="155"/>
+      <c r="AH53" s="155"/>
+      <c r="AI53" s="155"/>
       <c r="AJ53" s="73"/>
-      <c r="AK53" s="127"/>
+      <c r="AK53" s="254"/>
       <c r="AL53" s="75"/>
-      <c r="AM53" s="124"/>
-      <c r="AN53" s="129"/>
+      <c r="AM53" s="155"/>
+      <c r="AN53" s="252"/>
       <c r="AO53" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6141,51 +6141,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="114"/>
-      <c r="D54" s="115"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="127"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="124"/>
-      <c r="M54" s="124"/>
-      <c r="N54" s="124"/>
-      <c r="O54" s="124"/>
-      <c r="P54" s="124"/>
-      <c r="Q54" s="114"/>
-      <c r="R54" s="127"/>
-      <c r="S54" s="115"/>
-      <c r="T54" s="124"/>
-      <c r="U54" s="124"/>
-      <c r="V54" s="124"/>
-      <c r="W54" s="124"/>
-      <c r="X54" s="124"/>
-      <c r="Y54" s="124"/>
-      <c r="Z54" s="114"/>
-      <c r="AA54" s="127"/>
-      <c r="AB54" s="115"/>
-      <c r="AC54" s="124"/>
-      <c r="AD54" s="124"/>
-      <c r="AE54" s="124"/>
-      <c r="AF54" s="124"/>
-      <c r="AG54" s="124"/>
-      <c r="AH54" s="124"/>
-      <c r="AI54" s="124"/>
+      <c r="C54" s="250"/>
+      <c r="D54" s="251"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="250"/>
+      <c r="G54" s="254"/>
+      <c r="H54" s="251"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="155"/>
+      <c r="K54" s="155"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
+      <c r="N54" s="155"/>
+      <c r="O54" s="155"/>
+      <c r="P54" s="155"/>
+      <c r="Q54" s="250"/>
+      <c r="R54" s="254"/>
+      <c r="S54" s="251"/>
+      <c r="T54" s="155"/>
+      <c r="U54" s="155"/>
+      <c r="V54" s="155"/>
+      <c r="W54" s="155"/>
+      <c r="X54" s="155"/>
+      <c r="Y54" s="155"/>
+      <c r="Z54" s="250"/>
+      <c r="AA54" s="254"/>
+      <c r="AB54" s="251"/>
+      <c r="AC54" s="155"/>
+      <c r="AD54" s="155"/>
+      <c r="AE54" s="155"/>
+      <c r="AF54" s="155"/>
+      <c r="AG54" s="155"/>
+      <c r="AH54" s="155"/>
+      <c r="AI54" s="155"/>
       <c r="AJ54" s="73"/>
-      <c r="AK54" s="127"/>
+      <c r="AK54" s="254"/>
       <c r="AL54" s="75"/>
-      <c r="AM54" s="124"/>
-      <c r="AN54" s="129"/>
+      <c r="AM54" s="155"/>
+      <c r="AN54" s="252"/>
       <c r="AO54" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6195,51 +6195,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="114"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="124"/>
-      <c r="J55" s="124"/>
-      <c r="K55" s="124"/>
-      <c r="L55" s="124"/>
-      <c r="M55" s="124"/>
-      <c r="N55" s="124"/>
-      <c r="O55" s="124"/>
-      <c r="P55" s="124"/>
-      <c r="Q55" s="114"/>
-      <c r="R55" s="127"/>
-      <c r="S55" s="115"/>
-      <c r="T55" s="124"/>
-      <c r="U55" s="124"/>
-      <c r="V55" s="124"/>
-      <c r="W55" s="124"/>
-      <c r="X55" s="124"/>
-      <c r="Y55" s="124"/>
-      <c r="Z55" s="114"/>
-      <c r="AA55" s="127"/>
-      <c r="AB55" s="115"/>
-      <c r="AC55" s="124"/>
-      <c r="AD55" s="124"/>
-      <c r="AE55" s="124"/>
-      <c r="AF55" s="124"/>
-      <c r="AG55" s="124"/>
-      <c r="AH55" s="124"/>
-      <c r="AI55" s="124"/>
+      <c r="C55" s="250"/>
+      <c r="D55" s="251"/>
+      <c r="E55" s="155"/>
+      <c r="F55" s="250"/>
+      <c r="G55" s="254"/>
+      <c r="H55" s="251"/>
+      <c r="I55" s="155"/>
+      <c r="J55" s="155"/>
+      <c r="K55" s="155"/>
+      <c r="L55" s="155"/>
+      <c r="M55" s="155"/>
+      <c r="N55" s="155"/>
+      <c r="O55" s="155"/>
+      <c r="P55" s="155"/>
+      <c r="Q55" s="250"/>
+      <c r="R55" s="254"/>
+      <c r="S55" s="251"/>
+      <c r="T55" s="155"/>
+      <c r="U55" s="155"/>
+      <c r="V55" s="155"/>
+      <c r="W55" s="155"/>
+      <c r="X55" s="155"/>
+      <c r="Y55" s="155"/>
+      <c r="Z55" s="250"/>
+      <c r="AA55" s="254"/>
+      <c r="AB55" s="251"/>
+      <c r="AC55" s="155"/>
+      <c r="AD55" s="155"/>
+      <c r="AE55" s="155"/>
+      <c r="AF55" s="155"/>
+      <c r="AG55" s="155"/>
+      <c r="AH55" s="155"/>
+      <c r="AI55" s="155"/>
       <c r="AJ55" s="73"/>
-      <c r="AK55" s="127"/>
+      <c r="AK55" s="254"/>
       <c r="AL55" s="75"/>
-      <c r="AM55" s="124"/>
-      <c r="AN55" s="129"/>
+      <c r="AM55" s="155"/>
+      <c r="AN55" s="252"/>
       <c r="AO55" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6249,51 +6249,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B56" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="114"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="127"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124"/>
-      <c r="N56" s="124"/>
-      <c r="O56" s="124"/>
-      <c r="P56" s="124"/>
-      <c r="Q56" s="114"/>
-      <c r="R56" s="127"/>
-      <c r="S56" s="115"/>
-      <c r="T56" s="124"/>
-      <c r="U56" s="124"/>
-      <c r="V56" s="124"/>
-      <c r="W56" s="124"/>
-      <c r="X56" s="124"/>
-      <c r="Y56" s="124"/>
-      <c r="Z56" s="114"/>
-      <c r="AA56" s="127"/>
-      <c r="AB56" s="115"/>
-      <c r="AC56" s="124"/>
-      <c r="AD56" s="124"/>
-      <c r="AE56" s="124"/>
-      <c r="AF56" s="124"/>
-      <c r="AG56" s="124"/>
-      <c r="AH56" s="124"/>
-      <c r="AI56" s="124"/>
+      <c r="C56" s="250"/>
+      <c r="D56" s="251"/>
+      <c r="E56" s="155"/>
+      <c r="F56" s="250"/>
+      <c r="G56" s="254"/>
+      <c r="H56" s="251"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="155"/>
+      <c r="K56" s="155"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
+      <c r="N56" s="155"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="155"/>
+      <c r="Q56" s="250"/>
+      <c r="R56" s="254"/>
+      <c r="S56" s="251"/>
+      <c r="T56" s="155"/>
+      <c r="U56" s="155"/>
+      <c r="V56" s="155"/>
+      <c r="W56" s="155"/>
+      <c r="X56" s="155"/>
+      <c r="Y56" s="155"/>
+      <c r="Z56" s="250"/>
+      <c r="AA56" s="254"/>
+      <c r="AB56" s="251"/>
+      <c r="AC56" s="155"/>
+      <c r="AD56" s="155"/>
+      <c r="AE56" s="155"/>
+      <c r="AF56" s="155"/>
+      <c r="AG56" s="155"/>
+      <c r="AH56" s="155"/>
+      <c r="AI56" s="155"/>
       <c r="AJ56" s="73"/>
-      <c r="AK56" s="127"/>
+      <c r="AK56" s="254"/>
       <c r="AL56" s="75"/>
-      <c r="AM56" s="124"/>
-      <c r="AN56" s="129"/>
+      <c r="AM56" s="155"/>
+      <c r="AN56" s="252"/>
       <c r="AO56" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6303,51 +6303,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B57" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C57" s="114"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="124"/>
-      <c r="K57" s="124"/>
-      <c r="L57" s="124"/>
-      <c r="M57" s="124"/>
-      <c r="N57" s="124"/>
-      <c r="O57" s="124"/>
-      <c r="P57" s="124"/>
-      <c r="Q57" s="114"/>
-      <c r="R57" s="127"/>
-      <c r="S57" s="115"/>
-      <c r="T57" s="124"/>
-      <c r="U57" s="124"/>
-      <c r="V57" s="124"/>
-      <c r="W57" s="124"/>
-      <c r="X57" s="124"/>
-      <c r="Y57" s="124"/>
-      <c r="Z57" s="114"/>
-      <c r="AA57" s="127"/>
-      <c r="AB57" s="115"/>
-      <c r="AC57" s="124"/>
-      <c r="AD57" s="124"/>
-      <c r="AE57" s="124"/>
-      <c r="AF57" s="124"/>
-      <c r="AG57" s="124"/>
-      <c r="AH57" s="124"/>
-      <c r="AI57" s="124"/>
+      <c r="C57" s="250"/>
+      <c r="D57" s="251"/>
+      <c r="E57" s="155"/>
+      <c r="F57" s="250"/>
+      <c r="G57" s="254"/>
+      <c r="H57" s="251"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="155"/>
+      <c r="L57" s="155"/>
+      <c r="M57" s="155"/>
+      <c r="N57" s="155"/>
+      <c r="O57" s="155"/>
+      <c r="P57" s="155"/>
+      <c r="Q57" s="250"/>
+      <c r="R57" s="254"/>
+      <c r="S57" s="251"/>
+      <c r="T57" s="155"/>
+      <c r="U57" s="155"/>
+      <c r="V57" s="155"/>
+      <c r="W57" s="155"/>
+      <c r="X57" s="155"/>
+      <c r="Y57" s="155"/>
+      <c r="Z57" s="250"/>
+      <c r="AA57" s="254"/>
+      <c r="AB57" s="251"/>
+      <c r="AC57" s="155"/>
+      <c r="AD57" s="155"/>
+      <c r="AE57" s="155"/>
+      <c r="AF57" s="155"/>
+      <c r="AG57" s="155"/>
+      <c r="AH57" s="155"/>
+      <c r="AI57" s="155"/>
       <c r="AJ57" s="73"/>
-      <c r="AK57" s="127"/>
+      <c r="AK57" s="254"/>
       <c r="AL57" s="75"/>
-      <c r="AM57" s="124"/>
-      <c r="AN57" s="129"/>
+      <c r="AM57" s="155"/>
+      <c r="AN57" s="252"/>
       <c r="AO57" s="39">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6357,51 +6357,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>93</v>
       </c>
       <c r="B58" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="112"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="123"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="127"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="123"/>
-      <c r="J58" s="123"/>
-      <c r="K58" s="123"/>
-      <c r="L58" s="123"/>
-      <c r="M58" s="123"/>
-      <c r="N58" s="123"/>
-      <c r="O58" s="123"/>
-      <c r="P58" s="123"/>
-      <c r="Q58" s="112"/>
-      <c r="R58" s="127"/>
-      <c r="S58" s="113"/>
-      <c r="T58" s="123"/>
-      <c r="U58" s="123"/>
-      <c r="V58" s="123"/>
-      <c r="W58" s="123"/>
-      <c r="X58" s="123"/>
-      <c r="Y58" s="123"/>
-      <c r="Z58" s="112"/>
-      <c r="AA58" s="127"/>
-      <c r="AB58" s="113"/>
-      <c r="AC58" s="123"/>
-      <c r="AD58" s="123"/>
-      <c r="AE58" s="123"/>
-      <c r="AF58" s="123"/>
-      <c r="AG58" s="123"/>
-      <c r="AH58" s="123"/>
-      <c r="AI58" s="123"/>
+      <c r="C58" s="257"/>
+      <c r="D58" s="258"/>
+      <c r="E58" s="199"/>
+      <c r="F58" s="257"/>
+      <c r="G58" s="254"/>
+      <c r="H58" s="258"/>
+      <c r="I58" s="199"/>
+      <c r="J58" s="199"/>
+      <c r="K58" s="199"/>
+      <c r="L58" s="199"/>
+      <c r="M58" s="199"/>
+      <c r="N58" s="199"/>
+      <c r="O58" s="199"/>
+      <c r="P58" s="199"/>
+      <c r="Q58" s="257"/>
+      <c r="R58" s="254"/>
+      <c r="S58" s="258"/>
+      <c r="T58" s="199"/>
+      <c r="U58" s="199"/>
+      <c r="V58" s="199"/>
+      <c r="W58" s="199"/>
+      <c r="X58" s="199"/>
+      <c r="Y58" s="199"/>
+      <c r="Z58" s="257"/>
+      <c r="AA58" s="254"/>
+      <c r="AB58" s="258"/>
+      <c r="AC58" s="199"/>
+      <c r="AD58" s="199"/>
+      <c r="AE58" s="199"/>
+      <c r="AF58" s="199"/>
+      <c r="AG58" s="199"/>
+      <c r="AH58" s="199"/>
+      <c r="AI58" s="199"/>
       <c r="AJ58" s="74"/>
-      <c r="AK58" s="127"/>
+      <c r="AK58" s="254"/>
       <c r="AL58" s="76"/>
-      <c r="AM58" s="123"/>
-      <c r="AN58" s="125"/>
+      <c r="AM58" s="199"/>
+      <c r="AN58" s="256"/>
       <c r="AO58" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6411,144 +6411,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="62"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="110"/>
-      <c r="F59" s="110"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="110"/>
-      <c r="J59" s="110"/>
-      <c r="K59" s="110"/>
-      <c r="L59" s="110"/>
-      <c r="M59" s="110"/>
-      <c r="N59" s="110"/>
-      <c r="O59" s="110"/>
-      <c r="P59" s="110"/>
-      <c r="Q59" s="110"/>
-      <c r="R59" s="127"/>
-      <c r="S59" s="110"/>
-      <c r="T59" s="110"/>
-      <c r="U59" s="110"/>
-      <c r="V59" s="110"/>
-      <c r="W59" s="110"/>
-      <c r="X59" s="110"/>
-      <c r="Y59" s="110"/>
-      <c r="Z59" s="110"/>
-      <c r="AA59" s="127"/>
-      <c r="AB59" s="110"/>
-      <c r="AC59" s="110"/>
-      <c r="AD59" s="110"/>
-      <c r="AE59" s="110"/>
-      <c r="AF59" s="110"/>
-      <c r="AG59" s="110"/>
-      <c r="AH59" s="110"/>
-      <c r="AI59" s="110"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="260"/>
+      <c r="F59" s="260"/>
+      <c r="G59" s="254"/>
+      <c r="H59" s="260"/>
+      <c r="I59" s="260"/>
+      <c r="J59" s="260"/>
+      <c r="K59" s="260"/>
+      <c r="L59" s="260"/>
+      <c r="M59" s="260"/>
+      <c r="N59" s="260"/>
+      <c r="O59" s="260"/>
+      <c r="P59" s="260"/>
+      <c r="Q59" s="260"/>
+      <c r="R59" s="254"/>
+      <c r="S59" s="260"/>
+      <c r="T59" s="260"/>
+      <c r="U59" s="260"/>
+      <c r="V59" s="260"/>
+      <c r="W59" s="260"/>
+      <c r="X59" s="260"/>
+      <c r="Y59" s="260"/>
+      <c r="Z59" s="260"/>
+      <c r="AA59" s="254"/>
+      <c r="AB59" s="260"/>
+      <c r="AC59" s="260"/>
+      <c r="AD59" s="260"/>
+      <c r="AE59" s="260"/>
+      <c r="AF59" s="260"/>
+      <c r="AG59" s="260"/>
+      <c r="AH59" s="260"/>
+      <c r="AI59" s="260"/>
       <c r="AJ59" s="65"/>
-      <c r="AK59" s="128"/>
+      <c r="AK59" s="255"/>
       <c r="AL59" s="65"/>
-      <c r="AM59" s="110"/>
-      <c r="AN59" s="110"/>
+      <c r="AM59" s="260"/>
+      <c r="AN59" s="260"/>
       <c r="AO59" s="35"/>
       <c r="AP59" s="35"/>
     </row>
-    <row r="60" spans="1:42" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="158" t="s">
+    <row r="60" spans="1:42" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="159"/>
-      <c r="C60" s="109">
+      <c r="B60" s="215"/>
+      <c r="C60" s="261">
         <f>SUM(C47:D59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="107"/>
-      <c r="E60" s="108">
+      <c r="D60" s="262"/>
+      <c r="E60" s="259">
         <f>SUM(E47:F59)</f>
         <v>0</v>
       </c>
-      <c r="F60" s="109"/>
-      <c r="G60" s="128"/>
-      <c r="H60" s="107">
+      <c r="F60" s="261"/>
+      <c r="G60" s="255"/>
+      <c r="H60" s="262">
         <f>SUM(H47:I59)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="108"/>
-      <c r="J60" s="108">
+      <c r="I60" s="259"/>
+      <c r="J60" s="259">
         <f>SUM(J47:K59)</f>
         <v>0</v>
       </c>
-      <c r="K60" s="108"/>
-      <c r="L60" s="108">
+      <c r="K60" s="259"/>
+      <c r="L60" s="259">
         <f>SUM(L47:M59)</f>
         <v>0</v>
       </c>
-      <c r="M60" s="108"/>
-      <c r="N60" s="108">
+      <c r="M60" s="259"/>
+      <c r="N60" s="259">
         <f>SUM(N47:O59)</f>
         <v>0</v>
       </c>
-      <c r="O60" s="108"/>
-      <c r="P60" s="108">
+      <c r="O60" s="259"/>
+      <c r="P60" s="259">
         <f>SUM(P47:Q59)</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="109"/>
-      <c r="R60" s="128"/>
-      <c r="S60" s="107">
+      <c r="Q60" s="261"/>
+      <c r="R60" s="255"/>
+      <c r="S60" s="262">
         <f>SUM(S47:T59)</f>
         <v>0</v>
       </c>
-      <c r="T60" s="108"/>
-      <c r="U60" s="108">
+      <c r="T60" s="259"/>
+      <c r="U60" s="259">
         <f>SUM(U47:V59)</f>
         <v>0</v>
       </c>
-      <c r="V60" s="108"/>
-      <c r="W60" s="108">
+      <c r="V60" s="259"/>
+      <c r="W60" s="259">
         <f>SUM(W47:X59)</f>
         <v>0</v>
       </c>
-      <c r="X60" s="108"/>
-      <c r="Y60" s="108">
+      <c r="X60" s="259"/>
+      <c r="Y60" s="259">
         <f>SUM(Y47:Z59)</f>
         <v>0</v>
       </c>
-      <c r="Z60" s="109"/>
-      <c r="AA60" s="128"/>
-      <c r="AB60" s="107">
+      <c r="Z60" s="261"/>
+      <c r="AA60" s="255"/>
+      <c r="AB60" s="262">
         <f>SUM(AB47:AC59)</f>
         <v>0</v>
       </c>
-      <c r="AC60" s="108"/>
-      <c r="AD60" s="108">
+      <c r="AC60" s="259"/>
+      <c r="AD60" s="259">
         <f>SUM(AD47:AE59)</f>
         <v>0</v>
       </c>
-      <c r="AE60" s="108"/>
-      <c r="AF60" s="108">
+      <c r="AE60" s="259"/>
+      <c r="AF60" s="259">
         <f>SUM(AF47:AG59)</f>
         <v>0</v>
       </c>
-      <c r="AG60" s="108"/>
-      <c r="AH60" s="108">
+      <c r="AG60" s="259"/>
+      <c r="AH60" s="259">
         <f>SUM(AH47:AI59)</f>
         <v>0</v>
       </c>
-      <c r="AI60" s="108"/>
-      <c r="AJ60" s="108">
+      <c r="AI60" s="259"/>
+      <c r="AJ60" s="259">
         <f>SUM(AJ47:AL59)</f>
         <v>0</v>
       </c>
-      <c r="AK60" s="108"/>
-      <c r="AL60" s="108"/>
-      <c r="AM60" s="108">
+      <c r="AK60" s="259"/>
+      <c r="AL60" s="259"/>
+      <c r="AM60" s="259">
         <f>SUM(AM47:AN59)</f>
         <v>0</v>
       </c>
-      <c r="AN60" s="109"/>
+      <c r="AN60" s="261"/>
       <c r="AO60" s="63">
         <f>SUM(C60:AN60)</f>
         <v>0</v>
@@ -6560,6 +6560,655 @@
     </row>
   </sheetData>
   <mergeCells count="673">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A1:AP1"/>
+    <mergeCell ref="Z7:AN13"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="AH44:AI44"/>
+    <mergeCell ref="AJ44:AL44"/>
+    <mergeCell ref="AM44:AN44"/>
+    <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="AK20:AK41"/>
+    <mergeCell ref="AM20:AN21"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="AH60:AI60"/>
+    <mergeCell ref="AJ60:AL60"/>
+    <mergeCell ref="AM60:AN60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="U60:V60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="AD59:AE59"/>
+    <mergeCell ref="AF59:AG59"/>
+    <mergeCell ref="AH59:AI59"/>
+    <mergeCell ref="AM59:AN59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="S59:T59"/>
+    <mergeCell ref="U59:V59"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AB59:AC59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="AB60:AC60"/>
+    <mergeCell ref="AD60:AE60"/>
+    <mergeCell ref="AF60:AG60"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="AB56:AC56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="AB57:AC57"/>
+    <mergeCell ref="AM56:AN56"/>
+    <mergeCell ref="AM55:AN55"/>
+    <mergeCell ref="AM57:AN57"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="AD56:AE56"/>
+    <mergeCell ref="AF58:AG58"/>
+    <mergeCell ref="AH58:AI58"/>
+    <mergeCell ref="AM58:AN58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="S58:T58"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="Y58:Z58"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="G42:G60"/>
+    <mergeCell ref="AK47:AK59"/>
+    <mergeCell ref="R20:R60"/>
+    <mergeCell ref="G20:G41"/>
+    <mergeCell ref="AA20:AA60"/>
+    <mergeCell ref="AF56:AG56"/>
+    <mergeCell ref="AH56:AI56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="Y56:Z56"/>
+    <mergeCell ref="AD55:AE55"/>
+    <mergeCell ref="AF55:AG55"/>
+    <mergeCell ref="AH55:AI55"/>
+    <mergeCell ref="AD57:AE57"/>
+    <mergeCell ref="AF57:AG57"/>
+    <mergeCell ref="AH57:AI57"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="AF54:AG54"/>
+    <mergeCell ref="AH54:AI54"/>
+    <mergeCell ref="AM54:AN54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="S54:T54"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="Y54:Z54"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="AD54:AE54"/>
+    <mergeCell ref="AD53:AE53"/>
+    <mergeCell ref="AF53:AG53"/>
+    <mergeCell ref="AH53:AI53"/>
+    <mergeCell ref="AM53:AN53"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="AF52:AG52"/>
+    <mergeCell ref="AH52:AI52"/>
+    <mergeCell ref="AM52:AN52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="S52:T52"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="S53:T53"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="Y53:Z53"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="AB50:AC50"/>
+    <mergeCell ref="AD50:AE50"/>
+    <mergeCell ref="AF50:AG50"/>
+    <mergeCell ref="AH50:AI50"/>
+    <mergeCell ref="AM50:AN50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="S50:T50"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="Y50:Z50"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="AF49:AG49"/>
+    <mergeCell ref="AH49:AI49"/>
+    <mergeCell ref="AM49:AN49"/>
+    <mergeCell ref="AF51:AG51"/>
+    <mergeCell ref="AH51:AI51"/>
+    <mergeCell ref="AM51:AN51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="S51:T51"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="Y51:Z51"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AF48:AG48"/>
+    <mergeCell ref="AH48:AI48"/>
+    <mergeCell ref="AM48:AN48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="S48:T48"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="Y48:Z48"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AH47:AI47"/>
+    <mergeCell ref="AM47:AN47"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="S49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="Y49:Z49"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="Y47:Z47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="AF45:AG45"/>
+    <mergeCell ref="AH45:AI45"/>
+    <mergeCell ref="AJ45:AL45"/>
+    <mergeCell ref="AM45:AN45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="AD41:AE41"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AH41:AI41"/>
+    <mergeCell ref="AM41:AN41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="AB40:AC40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="AB44:AC44"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AH39:AI39"/>
+    <mergeCell ref="AM39:AN39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="AM40:AN40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="Y40:Z40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AH37:AI37"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AH38:AI38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AH36:AI36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:Z35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="AD35:AE35"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AH35:AI35"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="AD34:AE34"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AH34:AI34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:Z32"/>
+    <mergeCell ref="AD32:AE32"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AH32:AI32"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AH33:AI33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AH28:AI28"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AH27:AI27"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AH22:AI22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="AF44:AG44"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="AB43:AC43"/>
+    <mergeCell ref="AD43:AE43"/>
+    <mergeCell ref="AF43:AG43"/>
+    <mergeCell ref="AH43:AI43"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A14:AN15"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A16:B19"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="AH23:AI23"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="A11:K13"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="M11:X13"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="Z3:AN3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Z5:AN6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="AH16:AN16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
@@ -6584,655 +7233,6 @@
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="N16:W16"/>
     <mergeCell ref="X16:AG16"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="D3:K3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="Z3:AN3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Z5:AN6"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="A11:K13"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="M11:X13"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A14:AN15"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A16:B19"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="AH23:AI23"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AF44:AG44"/>
-    <mergeCell ref="AJ43:AL43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="AB43:AC43"/>
-    <mergeCell ref="AD43:AE43"/>
-    <mergeCell ref="AF43:AG43"/>
-    <mergeCell ref="AH43:AI43"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AH22:AI22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="AH26:AI26"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AH28:AI28"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AH29:AI29"/>
-    <mergeCell ref="AM29:AN29"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AH34:AI34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:Z32"/>
-    <mergeCell ref="AD32:AE32"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AH32:AI32"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AH33:AI33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="AD35:AE35"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AH35:AI35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:Z35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="AD34:AE34"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AH36:AI36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AH37:AI37"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Y37:Z37"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AH38:AI38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AH40:AI40"/>
-    <mergeCell ref="AM40:AN40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Y40:Z40"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AH39:AI39"/>
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="AB40:AC40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AD41:AE41"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AH41:AI41"/>
-    <mergeCell ref="AM41:AN41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="AB44:AC44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="AF45:AG45"/>
-    <mergeCell ref="AH45:AI45"/>
-    <mergeCell ref="AJ45:AL45"/>
-    <mergeCell ref="AM45:AN45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="AH47:AI47"/>
-    <mergeCell ref="AM47:AN47"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="S49:T49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="Y49:Z49"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AF48:AG48"/>
-    <mergeCell ref="AH48:AI48"/>
-    <mergeCell ref="AM48:AN48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="S48:T48"/>
-    <mergeCell ref="U48:V48"/>
-    <mergeCell ref="W48:X48"/>
-    <mergeCell ref="Y48:Z48"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="AF51:AG51"/>
-    <mergeCell ref="AH51:AI51"/>
-    <mergeCell ref="AM51:AN51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="S51:T51"/>
-    <mergeCell ref="U51:V51"/>
-    <mergeCell ref="W51:X51"/>
-    <mergeCell ref="Y51:Z51"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="AB50:AC50"/>
-    <mergeCell ref="AD50:AE50"/>
-    <mergeCell ref="AF50:AG50"/>
-    <mergeCell ref="AH50:AI50"/>
-    <mergeCell ref="AM50:AN50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="S50:T50"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="Y50:Z50"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="AF49:AG49"/>
-    <mergeCell ref="AH49:AI49"/>
-    <mergeCell ref="AM49:AN49"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="S53:T53"/>
-    <mergeCell ref="U53:V53"/>
-    <mergeCell ref="W53:X53"/>
-    <mergeCell ref="Y53:Z53"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="AD53:AE53"/>
-    <mergeCell ref="AF53:AG53"/>
-    <mergeCell ref="AH53:AI53"/>
-    <mergeCell ref="AM53:AN53"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="AF52:AG52"/>
-    <mergeCell ref="AH52:AI52"/>
-    <mergeCell ref="AM52:AN52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="S52:T52"/>
-    <mergeCell ref="U52:V52"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="Y52:Z52"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="AF54:AG54"/>
-    <mergeCell ref="AH54:AI54"/>
-    <mergeCell ref="AM54:AN54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="S54:T54"/>
-    <mergeCell ref="U54:V54"/>
-    <mergeCell ref="W54:X54"/>
-    <mergeCell ref="Y54:Z54"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="G42:G60"/>
-    <mergeCell ref="AK47:AK59"/>
-    <mergeCell ref="R20:R60"/>
-    <mergeCell ref="G20:G41"/>
-    <mergeCell ref="AA20:AA60"/>
-    <mergeCell ref="AF56:AG56"/>
-    <mergeCell ref="AH56:AI56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="W56:X56"/>
-    <mergeCell ref="Y56:Z56"/>
-    <mergeCell ref="AD55:AE55"/>
-    <mergeCell ref="AF55:AG55"/>
-    <mergeCell ref="AH55:AI55"/>
-    <mergeCell ref="AD57:AE57"/>
-    <mergeCell ref="AF57:AG57"/>
-    <mergeCell ref="AH57:AI57"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="U55:V55"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="AD54:AE54"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AF58:AG58"/>
-    <mergeCell ref="AH58:AI58"/>
-    <mergeCell ref="AM58:AN58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="U58:V58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="Y58:Z58"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="W57:X57"/>
-    <mergeCell ref="Y57:Z57"/>
-    <mergeCell ref="AB57:AC57"/>
-    <mergeCell ref="AM56:AN56"/>
-    <mergeCell ref="AM55:AN55"/>
-    <mergeCell ref="AM57:AN57"/>
-    <mergeCell ref="W55:X55"/>
-    <mergeCell ref="Y55:Z55"/>
-    <mergeCell ref="AD56:AE56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="AB55:AC55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="AB56:AC56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="AD59:AE59"/>
-    <mergeCell ref="AF59:AG59"/>
-    <mergeCell ref="AH59:AI59"/>
-    <mergeCell ref="AM59:AN59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="U59:V59"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AB59:AC59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="AB60:AC60"/>
-    <mergeCell ref="AD60:AE60"/>
-    <mergeCell ref="AF60:AG60"/>
-    <mergeCell ref="AH60:AI60"/>
-    <mergeCell ref="AJ60:AL60"/>
-    <mergeCell ref="AM60:AN60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="U60:V60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A1:AP1"/>
-    <mergeCell ref="Z7:AN13"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="AH44:AI44"/>
-    <mergeCell ref="AJ44:AL44"/>
-    <mergeCell ref="AM44:AN44"/>
-    <mergeCell ref="AM43:AN43"/>
-    <mergeCell ref="AK20:AK41"/>
-    <mergeCell ref="AM20:AN21"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
